--- a/data/SDG3.xlsx
+++ b/data/SDG3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D07C4-376B-3C42-8F44-01746A59F749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FAAB6-FD9C-CB4E-8BB0-CEB2800B80C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2600" windowWidth="30040" windowHeight="16360" activeTab="3" xr2:uid="{2A8EB405-38CB-4A40-B3E8-749D8E328CEF}"/>
+    <workbookView xWindow="780" yWindow="2600" windowWidth="30040" windowHeight="16360" activeTab="2" xr2:uid="{2A8EB405-38CB-4A40-B3E8-749D8E328CEF}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9349" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8727" uniqueCount="2474">
   <si>
     <t>keyword</t>
   </si>
@@ -7033,6 +7033,432 @@
   </si>
   <si>
     <t>fr_lem</t>
+  </si>
+  <si>
+    <t>mot-clé</t>
+  </si>
+  <si>
+    <t>Avortement</t>
+  </si>
+  <si>
+    <t>aboulie</t>
+  </si>
+  <si>
+    <t>accès aux services de santé</t>
+  </si>
+  <si>
+    <t>acétaldéhyde</t>
+  </si>
+  <si>
+    <t>acétonitrile</t>
+  </si>
+  <si>
+    <t>acétophénone</t>
+  </si>
+  <si>
+    <t>acroléine</t>
+  </si>
+  <si>
+    <t>acide acrylique</t>
+  </si>
+  <si>
+    <t>encéphalomyélite aiguë disséminée</t>
+  </si>
+  <si>
+    <t>hépatite aiguë</t>
+  </si>
+  <si>
+    <t>traitement de la toxicomanie</t>
+  </si>
+  <si>
+    <t>comportement addictif</t>
+  </si>
+  <si>
+    <t>adégramotide</t>
+  </si>
+  <si>
+    <t>naissance adolescente</t>
+  </si>
+  <si>
+    <t>syndrome de l'enfant adopté</t>
+  </si>
+  <si>
+    <t>syndrome aérotoxique</t>
+  </si>
+  <si>
+    <t>agoraphobie</t>
+  </si>
+  <si>
+    <t>concentration de polluants atmosphériques</t>
+  </si>
+  <si>
+    <t>la pollution de l'air</t>
+  </si>
+  <si>
+    <t>qualité de l'air</t>
+  </si>
+  <si>
+    <t>directive sur la qualité de l'air</t>
+  </si>
+  <si>
+    <t>indice de qualité de l'air</t>
+  </si>
+  <si>
+    <t>loi sur la qualité de l'air</t>
+  </si>
+  <si>
+    <t>l'abus d'alcool</t>
+  </si>
+  <si>
+    <t>Dépendance à l'alcool</t>
+  </si>
+  <si>
+    <t>alcool et cortisol</t>
+  </si>
+  <si>
+    <t>alcool et grossesse</t>
+  </si>
+  <si>
+    <t>consommation d'alcool</t>
+  </si>
+  <si>
+    <t>dépendance à l'alcool</t>
+  </si>
+  <si>
+    <t>désintoxication d'alcool</t>
+  </si>
+  <si>
+    <t>boire de l'alcool</t>
+  </si>
+  <si>
+    <t>intoxication alcoolique</t>
+  </si>
+  <si>
+    <t>abus d'alcool</t>
+  </si>
+  <si>
+    <t>lésions cérébrales liées à l'alcool</t>
+  </si>
+  <si>
+    <t>méfaits liés à l'alcool</t>
+  </si>
+  <si>
+    <t>problèmes liés à l'alcool</t>
+  </si>
+  <si>
+    <t>cardiomyopathie alcoolique</t>
+  </si>
+  <si>
+    <t>hallucinose alcoolique</t>
+  </si>
+  <si>
+    <t>hépatite alcoolique</t>
+  </si>
+  <si>
+    <t>acidocétose alcoolique</t>
+  </si>
+  <si>
+    <t>maladie alcoolique du foie</t>
+  </si>
+  <si>
+    <t>alcoolisme</t>
+  </si>
+  <si>
+    <t>La maladie d'Alzheimer</t>
+  </si>
+  <si>
+    <t>amikacine</t>
+  </si>
+  <si>
+    <t>amnésie</t>
+  </si>
+  <si>
+    <t>amprénavir</t>
+  </si>
+  <si>
+    <t>anophèle</t>
+  </si>
+  <si>
+    <t>anorexie mirabilis</t>
+  </si>
+  <si>
+    <t>anorexie nerveuse</t>
+  </si>
+  <si>
+    <t>anti-tabac</t>
+  </si>
+  <si>
+    <t>médicaments antipaludiques</t>
+  </si>
+  <si>
+    <t>trouble de la personnalité antisociale</t>
+  </si>
+  <si>
+    <t>antivenin</t>
+  </si>
+  <si>
+    <t>antivenins</t>
+  </si>
+  <si>
+    <t>aplasmomycine</t>
+  </si>
+  <si>
+    <t>brume arctique</t>
+  </si>
+  <si>
+    <t>acide artélinique</t>
+  </si>
+  <si>
+    <t>artéméther</t>
+  </si>
+  <si>
+    <t>artémisinine</t>
+  </si>
+  <si>
+    <t>artémotil</t>
+  </si>
+  <si>
+    <t>artérolane</t>
+  </si>
+  <si>
+    <t>artésunate</t>
+  </si>
+  <si>
+    <t>insémination artificielle</t>
+  </si>
+  <si>
+    <t>organe artificiel</t>
+  </si>
+  <si>
+    <t>amiante</t>
+  </si>
+  <si>
+    <t>technologie de procréation assistée</t>
+  </si>
+  <si>
+    <t>vaccin atténué</t>
+  </si>
+  <si>
+    <t>autisme</t>
+  </si>
+  <si>
+    <t>av-halte</t>
+  </si>
+  <si>
+    <t>mort évitable</t>
+  </si>
+  <si>
+    <t>mortalité évitable</t>
+  </si>
+  <si>
+    <t>azithromycine</t>
+  </si>
+  <si>
+    <t>bonus bébé</t>
+  </si>
+  <si>
+    <t>bédaquiline</t>
+  </si>
+  <si>
+    <t>thérapie comportementale</t>
+  </si>
+  <si>
+    <t>dépendance comportementale</t>
+  </si>
+  <si>
+    <t>réponses comportementales au stress</t>
+  </si>
+  <si>
+    <t>benzène</t>
+  </si>
+  <si>
+    <t>bêta-hexachlorocyclohexane</t>
+  </si>
+  <si>
+    <t>normes d'émission de l'étape bharat</t>
+  </si>
+  <si>
+    <t>beuveries</t>
+  </si>
+  <si>
+    <t>recherche biomédicale</t>
+  </si>
+  <si>
+    <t>trouble bipolaire</t>
+  </si>
+  <si>
+    <t>contrôle des naissances</t>
+  </si>
+  <si>
+    <t>fièvre des eaux noires</t>
+  </si>
+  <si>
+    <t>alcoolémie</t>
+  </si>
+  <si>
+    <t>récompense de stimulation cérébrale</t>
+  </si>
+  <si>
+    <t>implant mammaire</t>
+  </si>
+  <si>
+    <t>brécanavir</t>
+  </si>
+  <si>
+    <t>bromochlorodifluorométhane</t>
+  </si>
+  <si>
+    <t>bromotrifluorométhane</t>
+  </si>
+  <si>
+    <t>boulimie mentale</t>
+  </si>
+  <si>
+    <t>brûler</t>
+  </si>
+  <si>
+    <t>trouble du sommeil induit par la caféine</t>
+  </si>
+  <si>
+    <t>caféinisme</t>
+  </si>
+  <si>
+    <t>mortalité par cancer</t>
+  </si>
+  <si>
+    <t>recherche contre le cancer</t>
+  </si>
+  <si>
+    <t>cannabis et conduite avec facultés affaiblies</t>
+  </si>
+  <si>
+    <t>capréomycine</t>
+  </si>
+  <si>
+    <t>gaz carbonique</t>
+  </si>
+  <si>
+    <t>le dioxyde de carbone dans l'atmosphère terrestre</t>
+  </si>
+  <si>
+    <t>le disulfure de carbone</t>
+  </si>
+  <si>
+    <t>l'alphabétisation carbone</t>
+  </si>
+  <si>
+    <t>monoxyde de carbone</t>
+  </si>
+  <si>
+    <t>empoisonnement au monoxyde de carbone</t>
+  </si>
+  <si>
+    <t>le tétrachlorure de carbone</t>
+  </si>
+  <si>
+    <t>sulfure de carbonyle</t>
+  </si>
+  <si>
+    <t>maladie cardiovasculaire</t>
+  </si>
+  <si>
+    <t>mortalité cardiovasculaire</t>
+  </si>
+  <si>
+    <t>cas fatalité</t>
+  </si>
+  <si>
+    <t>mortalité par cause</t>
+  </si>
+  <si>
+    <t>cellule souche cellulaire</t>
+  </si>
+  <si>
+    <t>cancer du col de l'utérus</t>
+  </si>
+  <si>
+    <t>La maladie de Chagas</t>
+  </si>
+  <si>
+    <t>fumer à la chaîne</t>
+  </si>
+  <si>
+    <t>castration chimique</t>
+  </si>
+  <si>
+    <t>abandon d'enfant</t>
+  </si>
+  <si>
+    <t>abus sur mineur</t>
+  </si>
+  <si>
+    <t>allocation familiale</t>
+  </si>
+  <si>
+    <t>mort d'enfant</t>
+  </si>
+  <si>
+    <t>bien-être des enfants</t>
+  </si>
+  <si>
+    <t>mort de l'enfance</t>
+  </si>
+  <si>
+    <t>infection à chlamydia</t>
+  </si>
+  <si>
+    <t>paraffine chlorée</t>
+  </si>
+  <si>
+    <t>chlore</t>
+  </si>
+  <si>
+    <t>chlorobenzène</t>
+  </si>
+  <si>
+    <t>chlorodifluorométhane</t>
+  </si>
+  <si>
+    <t>chloroéthane</t>
+  </si>
+  <si>
+    <t>chlorofluorocarbone</t>
+  </si>
+  <si>
+    <t>chloroforme</t>
+  </si>
+  <si>
+    <t>chlorométhane</t>
+  </si>
+  <si>
+    <t>chloropentafluoroéthane</t>
+  </si>
+  <si>
+    <t>chloroprène</t>
+  </si>
+  <si>
+    <t>chlorotrifluorométhane</t>
+  </si>
+  <si>
+    <t>prostatite bactérienne chronique</t>
+  </si>
+  <si>
+    <t>maladie chronique</t>
+  </si>
+  <si>
+    <t>Hépatite chronique</t>
+  </si>
+  <si>
+    <t>stress chronique</t>
+  </si>
+  <si>
+    <t>réceptacle à cigarettes</t>
+  </si>
+  <si>
+    <t>quinquina</t>
+  </si>
+  <si>
+    <t>cipargamine</t>
   </si>
 </sst>
 </file>
@@ -7428,7 +7854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9605427D-CC93-6B40-AA97-4531F708F7E8}">
   <dimension ref="A1:D623"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -14927,7 +15353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBAACC7-AD57-764E-8D18-57507D94A9D8}">
   <dimension ref="A1:E623"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
@@ -24299,8 +24725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0AADE5-FB47-464B-B04D-E94C47ADB6A2}">
   <dimension ref="A1:E623"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24333,11 +24759,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>2332</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -24348,11 +24772,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>2333</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -24363,11 +24785,9 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>2334</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -24378,11 +24798,9 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>2335</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
@@ -24393,11 +24811,9 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>2336</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
@@ -24408,11 +24824,9 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>2337</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
@@ -24423,11 +24837,9 @@
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>2338</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
@@ -24438,11 +24850,9 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>2339</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -24453,11 +24863,9 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
@@ -24468,11 +24876,9 @@
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>2340</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>30</v>
@@ -24483,11 +24889,9 @@
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>33</v>
@@ -24498,11 +24902,9 @@
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>2341</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>36</v>
@@ -24513,11 +24915,9 @@
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>2342</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>40</v>
@@ -24528,11 +24928,9 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>2343</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>43</v>
@@ -24543,11 +24941,9 @@
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>47</v>
@@ -24558,11 +24954,9 @@
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>2344</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>51</v>
@@ -24573,11 +24967,9 @@
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>2345</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>56</v>
@@ -24588,11 +24980,9 @@
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>2346</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>58</v>
@@ -24603,11 +24993,9 @@
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>2347</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>63</v>
@@ -24618,11 +25006,9 @@
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>67</v>
@@ -24633,9 +25019,7 @@
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
@@ -24648,11 +25032,9 @@
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>2348</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>73</v>
@@ -24663,11 +25045,9 @@
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>2349</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>76</v>
@@ -24678,9 +25058,7 @@
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
@@ -24693,11 +25071,9 @@
       <c r="A26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>2350</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>82</v>
@@ -24708,11 +25084,9 @@
       <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>2351</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>86</v>
@@ -24723,11 +25097,9 @@
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>90</v>
+        <v>2352</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>89</v>
@@ -24738,11 +25110,9 @@
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>2353</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>92</v>
@@ -24753,11 +25123,9 @@
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>98</v>
+        <v>2354</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>97</v>
@@ -24768,11 +25136,9 @@
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
-        <v>101</v>
+        <v>2355</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>100</v>
@@ -24783,11 +25149,9 @@
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>106</v>
+        <v>2356</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>104</v>
@@ -24798,11 +25162,9 @@
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="3" t="s">
-        <v>109</v>
+        <v>2357</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>108</v>
@@ -24813,11 +25175,9 @@
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="3" t="s">
-        <v>112</v>
+        <v>2358</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>111</v>
@@ -24828,11 +25188,9 @@
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
-        <v>115</v>
+        <v>2359</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>114</v>
@@ -24843,11 +25201,9 @@
       <c r="A36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="3" t="s">
-        <v>119</v>
+        <v>2360</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>117</v>
@@ -24858,11 +25214,9 @@
       <c r="A37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>2361</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>108</v>
@@ -24873,11 +25227,9 @@
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>2362</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>122</v>
@@ -24888,11 +25240,9 @@
       <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>128</v>
+        <v>2363</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>117</v>
@@ -24903,11 +25253,9 @@
       <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>130</v>
+        <v>2360</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>117</v>
@@ -24918,11 +25266,9 @@
       <c r="A41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>134</v>
+        <v>2364</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>132</v>
@@ -24933,11 +25279,9 @@
       <c r="A42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>105</v>
+        <v>2365</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>104</v>
@@ -24948,11 +25292,9 @@
       <c r="A43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="3" t="s">
-        <v>140</v>
+        <v>2366</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>137</v>
@@ -24963,11 +25305,9 @@
       <c r="A44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>2367</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>142</v>
@@ -24978,11 +25318,9 @@
       <c r="A45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>148</v>
+        <v>2368</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>147</v>
@@ -24993,11 +25331,9 @@
       <c r="A46" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>2369</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>150</v>
@@ -25008,11 +25344,9 @@
       <c r="A47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>155</v>
+        <v>2370</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>154</v>
@@ -25023,11 +25357,9 @@
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>158</v>
+        <v>2371</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>157</v>
@@ -25038,11 +25370,9 @@
       <c r="A49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
-        <v>161</v>
+        <v>2372</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>160</v>
@@ -25053,11 +25383,9 @@
       <c r="A50" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="3" t="s">
-        <v>165</v>
+        <v>2373</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>163</v>
@@ -25068,11 +25396,9 @@
       <c r="A51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>168</v>
+        <v>2374</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>167</v>
@@ -25083,11 +25409,9 @@
       <c r="A52" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>170</v>
@@ -25098,11 +25422,9 @@
       <c r="A53" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>172</v>
@@ -25113,11 +25435,9 @@
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
-        <v>178</v>
+        <v>2375</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>175</v>
@@ -25128,11 +25448,9 @@
       <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="3" t="s">
-        <v>179</v>
+        <v>2376</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>180</v>
@@ -25143,11 +25461,9 @@
       <c r="A56" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="3" t="s">
-        <v>182</v>
+        <v>2377</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>183</v>
@@ -25158,11 +25474,9 @@
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>185</v>
@@ -25173,11 +25487,9 @@
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="3" t="s">
-        <v>187</v>
+        <v>2378</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>188</v>
@@ -25188,11 +25500,9 @@
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>190</v>
@@ -25203,11 +25513,9 @@
       <c r="A60" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="3" t="s">
-        <v>194</v>
+        <v>2379</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>193</v>
@@ -25218,11 +25526,9 @@
       <c r="A61" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>196</v>
-      </c>
+      <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>197</v>
+        <v>2380</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>196</v>
@@ -25233,11 +25539,9 @@
       <c r="A62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="3" t="s">
-        <v>201</v>
+        <v>2381</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>199</v>
@@ -25248,11 +25552,9 @@
       <c r="A63" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>203</v>
@@ -25263,11 +25565,9 @@
       <c r="A64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>2382</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>206</v>
@@ -25278,11 +25578,9 @@
       <c r="A65" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="3" t="s">
-        <v>212</v>
+        <v>2383</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>209</v>
@@ -25293,11 +25591,9 @@
       <c r="A66" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>214</v>
-      </c>
+      <c r="B66" s="2"/>
       <c r="C66" s="3" t="s">
-        <v>216</v>
+        <v>2384</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>214</v>
@@ -25308,11 +25604,9 @@
       <c r="A67" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
-        <v>219</v>
+        <v>2385</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>218</v>
@@ -25323,11 +25617,9 @@
       <c r="A68" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="3" t="s">
-        <v>222</v>
+        <v>2386</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>221</v>
@@ -25338,11 +25630,9 @@
       <c r="A69" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>225</v>
+        <v>2387</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>224</v>
@@ -25353,11 +25643,9 @@
       <c r="A70" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>227</v>
-      </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>229</v>
+        <v>2388</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>227</v>
@@ -25368,11 +25656,9 @@
       <c r="A71" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>232</v>
+        <v>2389</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>231</v>
@@ -25383,11 +25669,9 @@
       <c r="A72" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>235</v>
+        <v>2390</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>234</v>
@@ -25398,11 +25682,9 @@
       <c r="A73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>238</v>
+        <v>2391</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>237</v>
@@ -25413,11 +25695,9 @@
       <c r="A74" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>240</v>
-      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="3" t="s">
-        <v>239</v>
+        <v>2392</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>240</v>
@@ -25428,11 +25708,9 @@
       <c r="A75" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>241</v>
+        <v>2393</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>242</v>
@@ -25443,11 +25721,9 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="3" t="s">
-        <v>243</v>
+        <v>2394</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>244</v>
@@ -25458,11 +25734,9 @@
       <c r="A77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="3" t="s">
-        <v>248</v>
+        <v>2395</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>246</v>
@@ -25473,11 +25747,9 @@
       <c r="A78" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>250</v>
-      </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="3" t="s">
-        <v>251</v>
+        <v>2396</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>250</v>
@@ -25488,11 +25760,9 @@
       <c r="A79" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>253</v>
-      </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="3" t="s">
-        <v>254</v>
+        <v>2397</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>253</v>
@@ -25503,11 +25773,9 @@
       <c r="A80" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>259</v>
+        <v>2398</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>256</v>
@@ -25518,9 +25786,7 @@
       <c r="A81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
         <v>260</v>
       </c>
@@ -25533,9 +25799,7 @@
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="3" t="s">
         <v>262</v>
       </c>
@@ -25548,11 +25812,9 @@
       <c r="A83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>267</v>
+        <v>2399</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>265</v>
@@ -25563,11 +25825,9 @@
       <c r="A84" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>270</v>
+        <v>2400</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>269</v>
@@ -25578,11 +25838,9 @@
       <c r="A85" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>271</v>
+        <v>2401</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>271</v>
@@ -25593,9 +25851,7 @@
       <c r="A86" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="3" t="s">
         <v>272</v>
       </c>
@@ -25608,11 +25864,9 @@
       <c r="A87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="3" t="s">
-        <v>277</v>
+        <v>2402</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>276</v>
@@ -25623,11 +25877,9 @@
       <c r="A88" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="3" t="s">
-        <v>281</v>
+        <v>2403</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>280</v>
@@ -25638,11 +25890,9 @@
       <c r="A89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
-        <v>284</v>
+        <v>2404</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>282</v>
@@ -25653,11 +25903,9 @@
       <c r="A90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="3" t="s">
-        <v>288</v>
+        <v>2405</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>286</v>
@@ -25668,11 +25916,9 @@
       <c r="A91" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
-        <v>291</v>
+        <v>2406</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>290</v>
@@ -25683,11 +25929,9 @@
       <c r="A92" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>293</v>
-      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="3" t="s">
-        <v>294</v>
+        <v>2407</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>293</v>
@@ -25698,11 +25942,9 @@
       <c r="A93" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>296</v>
-      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>298</v>
+        <v>2408</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>296</v>
@@ -25713,11 +25955,9 @@
       <c r="A94" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="B94" s="2"/>
       <c r="C94" s="3" t="s">
-        <v>301</v>
+        <v>2409</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>300</v>
@@ -25728,11 +25968,9 @@
       <c r="A95" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="B95" s="2"/>
       <c r="C95" s="3" t="s">
-        <v>302</v>
+        <v>2410</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>303</v>
@@ -25743,11 +25981,9 @@
       <c r="A96" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="B96" s="2"/>
       <c r="C96" s="3" t="s">
-        <v>306</v>
+        <v>2411</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>305</v>
@@ -25758,11 +25994,9 @@
       <c r="A97" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>308</v>
-      </c>
+      <c r="B97" s="2"/>
       <c r="C97" s="3" t="s">
-        <v>311</v>
+        <v>2412</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>308</v>
@@ -25773,11 +26007,9 @@
       <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="B98" s="2"/>
       <c r="C98" s="3" t="s">
-        <v>314</v>
+        <v>2413</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>313</v>
@@ -25788,11 +26020,9 @@
       <c r="A99" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>316</v>
-      </c>
+      <c r="B99" s="2"/>
       <c r="C99" s="3" t="s">
-        <v>318</v>
+        <v>2414</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>316</v>
@@ -25803,11 +26033,9 @@
       <c r="A100" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="3" t="s">
-        <v>322</v>
+        <v>2415</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>320</v>
@@ -25818,11 +26046,9 @@
       <c r="A101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>324</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>325</v>
+        <v>2416</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>324</v>
@@ -25833,11 +26059,9 @@
       <c r="A102" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="3" t="s">
-        <v>328</v>
+        <v>2417</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>327</v>
@@ -25848,11 +26072,9 @@
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>330</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="3" t="s">
-        <v>331</v>
+        <v>2418</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>330</v>
@@ -25863,11 +26085,9 @@
       <c r="A104" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>333</v>
-      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>336</v>
+        <v>2419</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>333</v>
@@ -25878,11 +26098,9 @@
       <c r="A105" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>338</v>
-      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="3" t="s">
-        <v>341</v>
+        <v>2420</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>338</v>
@@ -25893,11 +26111,9 @@
       <c r="A106" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="3" t="s">
-        <v>342</v>
+        <v>2421</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>342</v>
@@ -25908,11 +26124,9 @@
       <c r="A107" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="B107" s="2"/>
       <c r="C107" s="3" t="s">
-        <v>345</v>
+        <v>2422</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>344</v>
@@ -25923,11 +26137,9 @@
       <c r="A108" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="3" t="s">
-        <v>348</v>
+        <v>2423</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>347</v>
@@ -25938,11 +26150,9 @@
       <c r="A109" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>350</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="3" t="s">
-        <v>349</v>
+        <v>2424</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>350</v>
@@ -25953,11 +26163,9 @@
       <c r="A110" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="3" t="s">
-        <v>355</v>
+        <v>2425</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>353</v>
@@ -25968,11 +26176,9 @@
       <c r="A111" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>357</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="3" t="s">
-        <v>359</v>
+        <v>2426</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>357</v>
@@ -25983,11 +26189,9 @@
       <c r="A112" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>361</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="3" t="s">
-        <v>362</v>
+        <v>2427</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>361</v>
@@ -25998,9 +26202,7 @@
       <c r="A113" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>364</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
         <v>363</v>
       </c>
@@ -26013,11 +26215,9 @@
       <c r="A114" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="B114" s="2"/>
       <c r="C114" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>367</v>
@@ -26028,11 +26228,9 @@
       <c r="A115" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>370</v>
-      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="3" t="s">
-        <v>372</v>
+        <v>2428</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>370</v>
@@ -26043,11 +26241,9 @@
       <c r="A116" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>374</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="3" t="s">
-        <v>375</v>
+        <v>2429</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>374</v>
@@ -26058,11 +26254,9 @@
       <c r="A117" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="3" t="s">
-        <v>380</v>
+        <v>2430</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>377</v>
@@ -26073,11 +26267,9 @@
       <c r="A118" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
-        <v>383</v>
+        <v>2431</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>382</v>
@@ -26088,11 +26280,9 @@
       <c r="A119" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="3" t="s">
-        <v>387</v>
+        <v>2432</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>385</v>
@@ -26103,11 +26293,9 @@
       <c r="A120" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
-        <v>390</v>
+        <v>2433</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>389</v>
@@ -26118,11 +26306,9 @@
       <c r="A121" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>394</v>
+        <v>2434</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>392</v>
@@ -26133,11 +26319,9 @@
       <c r="A122" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>396</v>
-      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
-        <v>399</v>
+        <v>2435</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>396</v>
@@ -26148,11 +26332,9 @@
       <c r="A123" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>401</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="3" t="s">
-        <v>402</v>
+        <v>2436</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>401</v>
@@ -26163,11 +26345,9 @@
       <c r="A124" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>404</v>
-      </c>
+      <c r="B124" s="2"/>
       <c r="C124" s="3" t="s">
-        <v>406</v>
+        <v>2437</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>404</v>
@@ -26178,11 +26358,9 @@
       <c r="A125" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="B125" s="2"/>
       <c r="C125" s="3" t="s">
-        <v>409</v>
+        <v>2438</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>408</v>
@@ -26193,11 +26371,9 @@
       <c r="A126" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>411</v>
-      </c>
+      <c r="B126" s="2"/>
       <c r="C126" s="3" t="s">
-        <v>412</v>
+        <v>2439</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>411</v>
@@ -26208,11 +26384,9 @@
       <c r="A127" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="3" t="s">
-        <v>416</v>
+        <v>2440</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>414</v>
@@ -26223,11 +26397,9 @@
       <c r="A128" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>418</v>
-      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="3" t="s">
-        <v>420</v>
+        <v>2441</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>418</v>
@@ -26238,11 +26410,9 @@
       <c r="A129" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>422</v>
-      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="3" t="s">
-        <v>425</v>
+        <v>2442</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>422</v>
@@ -26253,11 +26423,9 @@
       <c r="A130" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>427</v>
-      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="3" t="s">
-        <v>429</v>
+        <v>2443</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>427</v>
@@ -26268,11 +26436,9 @@
       <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>431</v>
-      </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="3" t="s">
-        <v>433</v>
+        <v>2444</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>431</v>
@@ -26283,9 +26449,7 @@
       <c r="A132" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="3" t="s">
         <v>434</v>
       </c>
@@ -26298,11 +26462,9 @@
       <c r="A133" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>437</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="3" t="s">
-        <v>438</v>
+        <v>2445</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>437</v>
@@ -26313,9 +26475,7 @@
       <c r="A134" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>440</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="3" t="s">
         <v>441</v>
       </c>
@@ -26328,11 +26488,9 @@
       <c r="A135" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>443</v>
-      </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="3" t="s">
-        <v>444</v>
+        <v>2446</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>443</v>
@@ -26343,11 +26501,9 @@
       <c r="A136" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>446</v>
-      </c>
+      <c r="B136" s="2"/>
       <c r="C136" s="3" t="s">
-        <v>447</v>
+        <v>2447</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>446</v>
@@ -26358,11 +26514,9 @@
       <c r="A137" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>449</v>
-      </c>
+      <c r="B137" s="2"/>
       <c r="C137" s="3" t="s">
-        <v>450</v>
+        <v>2448</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>449</v>
@@ -26373,11 +26527,9 @@
       <c r="A138" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>452</v>
-      </c>
+      <c r="B138" s="2"/>
       <c r="C138" s="3" t="s">
-        <v>455</v>
+        <v>2449</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>452</v>
@@ -26388,11 +26540,9 @@
       <c r="A139" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>457</v>
-      </c>
+      <c r="B139" s="2"/>
       <c r="C139" s="3" t="s">
-        <v>460</v>
+        <v>2450</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>457</v>
@@ -26403,11 +26553,9 @@
       <c r="A140" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="B140" s="2"/>
       <c r="C140" s="3" t="s">
-        <v>464</v>
+        <v>2451</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>462</v>
@@ -26418,11 +26566,9 @@
       <c r="A141" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>468</v>
+        <v>2452</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>466</v>
@@ -26433,11 +26579,9 @@
       <c r="A142" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>470</v>
-      </c>
+      <c r="B142" s="2"/>
       <c r="C142" s="3" t="s">
-        <v>473</v>
+        <v>2453</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>470</v>
@@ -26448,11 +26592,9 @@
       <c r="A143" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="B143" s="2"/>
       <c r="C143" s="3" t="s">
-        <v>468</v>
+        <v>2454</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>466</v>
@@ -26463,11 +26605,9 @@
       <c r="A144" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>477</v>
-      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="3" t="s">
-        <v>478</v>
+        <v>1196</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>477</v>
@@ -26478,11 +26618,9 @@
       <c r="A145" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>480</v>
-      </c>
+      <c r="B145" s="2"/>
       <c r="C145" s="3" t="s">
-        <v>481</v>
+        <v>2455</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>480</v>
@@ -26493,9 +26631,7 @@
       <c r="A146" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>483</v>
-      </c>
+      <c r="B146" s="2"/>
       <c r="C146" s="3" t="s">
         <v>484</v>
       </c>
@@ -26508,11 +26644,9 @@
       <c r="A147" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>487</v>
-      </c>
+      <c r="B147" s="2"/>
       <c r="C147" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>487</v>
@@ -26523,11 +26657,9 @@
       <c r="A148" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>490</v>
-      </c>
+      <c r="B148" s="2"/>
       <c r="C148" s="3" t="s">
-        <v>492</v>
+        <v>2456</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>490</v>
@@ -26538,11 +26670,9 @@
       <c r="A149" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>494</v>
-      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="3" t="s">
-        <v>495</v>
+        <v>2457</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>494</v>
@@ -26553,11 +26683,9 @@
       <c r="A150" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>497</v>
-      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="3" t="s">
-        <v>498</v>
+        <v>2458</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>497</v>
@@ -26568,11 +26696,9 @@
       <c r="A151" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>500</v>
-      </c>
+      <c r="B151" s="2"/>
       <c r="C151" s="3" t="s">
-        <v>501</v>
+        <v>2459</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>500</v>
@@ -26583,11 +26709,9 @@
       <c r="A152" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>503</v>
-      </c>
+      <c r="B152" s="2"/>
       <c r="C152" s="3" t="s">
-        <v>504</v>
+        <v>2460</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>503</v>
@@ -26598,11 +26722,9 @@
       <c r="A153" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>506</v>
-      </c>
+      <c r="B153" s="2"/>
       <c r="C153" s="3" t="s">
-        <v>507</v>
+        <v>2461</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>506</v>
@@ -26613,11 +26735,9 @@
       <c r="A154" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>509</v>
-      </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="3" t="s">
-        <v>510</v>
+        <v>2462</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>509</v>
@@ -26628,11 +26748,9 @@
       <c r="A155" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>512</v>
-      </c>
+      <c r="B155" s="2"/>
       <c r="C155" s="3" t="s">
-        <v>513</v>
+        <v>2463</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>512</v>
@@ -26643,11 +26761,9 @@
       <c r="A156" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>515</v>
-      </c>
+      <c r="B156" s="2"/>
       <c r="C156" s="3" t="s">
-        <v>517</v>
+        <v>2464</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>515</v>
@@ -26658,11 +26774,9 @@
       <c r="A157" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>519</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" s="3" t="s">
-        <v>520</v>
+        <v>2465</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>519</v>
@@ -26673,11 +26787,9 @@
       <c r="A158" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="B158" s="2"/>
       <c r="C158" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>523</v>
@@ -26688,11 +26800,9 @@
       <c r="A159" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
-        <v>527</v>
+        <v>2466</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>526</v>
@@ -26703,11 +26813,9 @@
       <c r="A160" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>529</v>
-      </c>
+      <c r="B160" s="2"/>
       <c r="C160" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>529</v>
@@ -26718,11 +26826,9 @@
       <c r="A161" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>533</v>
-      </c>
+      <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>535</v>
+        <v>2467</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>533</v>
@@ -26733,11 +26839,9 @@
       <c r="A162" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="B162" s="2"/>
       <c r="C162" s="3" t="s">
-        <v>539</v>
+        <v>2468</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>537</v>
@@ -26748,11 +26852,9 @@
       <c r="A163" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>541</v>
-      </c>
+      <c r="B163" s="2"/>
       <c r="C163" s="3" t="s">
-        <v>542</v>
+        <v>2469</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>541</v>
@@ -26763,11 +26865,9 @@
       <c r="A164" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>544</v>
-      </c>
+      <c r="B164" s="2"/>
       <c r="C164" s="3" t="s">
-        <v>546</v>
+        <v>2470</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>544</v>
@@ -26778,11 +26878,9 @@
       <c r="A165" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>548</v>
-      </c>
+      <c r="B165" s="2"/>
       <c r="C165" s="3" t="s">
-        <v>550</v>
+        <v>2471</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>548</v>
@@ -26793,9 +26891,7 @@
       <c r="A166" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>551</v>
-      </c>
+      <c r="B166" s="2"/>
       <c r="C166" s="3" t="s">
         <v>551</v>
       </c>
@@ -26808,11 +26904,9 @@
       <c r="A167" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="B167" s="2"/>
       <c r="C167" s="3" t="s">
-        <v>554</v>
+        <v>2472</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>553</v>
@@ -26823,11 +26917,9 @@
       <c r="A168" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>555</v>
-      </c>
+      <c r="B168" s="2"/>
       <c r="C168" s="3" t="s">
-        <v>555</v>
+        <v>2473</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>555</v>
@@ -26838,9 +26930,7 @@
       <c r="A169" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>559</v>
-      </c>
+      <c r="B169" s="2"/>
       <c r="C169" s="3" t="s">
         <v>561</v>
       </c>
@@ -26853,9 +26943,7 @@
       <c r="A170" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>563</v>
-      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="3" t="s">
         <v>565</v>
       </c>
@@ -26868,9 +26956,7 @@
       <c r="A171" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>567</v>
-      </c>
+      <c r="B171" s="2"/>
       <c r="C171" s="3" t="s">
         <v>570</v>
       </c>
@@ -26883,9 +26969,7 @@
       <c r="A172" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>572</v>
-      </c>
+      <c r="B172" s="2"/>
       <c r="C172" s="3" t="s">
         <v>573</v>
       </c>
@@ -26898,9 +26982,7 @@
       <c r="A173" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>575</v>
-      </c>
+      <c r="B173" s="2"/>
       <c r="C173" s="3" t="s">
         <v>577</v>
       </c>
@@ -26913,9 +26995,7 @@
       <c r="A174" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>579</v>
-      </c>
+      <c r="B174" s="2"/>
       <c r="C174" s="3" t="s">
         <v>581</v>
       </c>
@@ -26928,9 +27008,7 @@
       <c r="A175" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>583</v>
-      </c>
+      <c r="B175" s="2"/>
       <c r="C175" s="3" t="s">
         <v>585</v>
       </c>
@@ -26943,9 +27021,7 @@
       <c r="A176" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>587</v>
-      </c>
+      <c r="B176" s="2"/>
       <c r="C176" s="3" t="s">
         <v>590</v>
       </c>
@@ -26958,9 +27034,7 @@
       <c r="A177" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>592</v>
-      </c>
+      <c r="B177" s="2"/>
       <c r="C177" s="3" t="s">
         <v>595</v>
       </c>
@@ -26973,9 +27047,7 @@
       <c r="A178" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>597</v>
-      </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="3" t="s">
         <v>600</v>
       </c>
@@ -26988,9 +27060,7 @@
       <c r="A179" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>602</v>
-      </c>
+      <c r="B179" s="2"/>
       <c r="C179" s="3" t="s">
         <v>605</v>
       </c>
@@ -27003,9 +27073,7 @@
       <c r="A180" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>607</v>
-      </c>
+      <c r="B180" s="2"/>
       <c r="C180" s="3" t="s">
         <v>610</v>
       </c>
@@ -27018,9 +27086,7 @@
       <c r="A181" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>612</v>
-      </c>
+      <c r="B181" s="2"/>
       <c r="C181" s="3" t="s">
         <v>614</v>
       </c>
@@ -27033,9 +27099,7 @@
       <c r="A182" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="B182" s="2"/>
       <c r="C182" s="3" t="s">
         <v>619</v>
       </c>
@@ -27048,9 +27112,7 @@
       <c r="A183" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>621</v>
-      </c>
+      <c r="B183" s="2"/>
       <c r="C183" s="3" t="s">
         <v>623</v>
       </c>
@@ -27063,9 +27125,7 @@
       <c r="A184" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>625</v>
-      </c>
+      <c r="B184" s="2"/>
       <c r="C184" s="3" t="s">
         <v>627</v>
       </c>
@@ -27078,9 +27138,7 @@
       <c r="A185" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>629</v>
-      </c>
+      <c r="B185" s="2"/>
       <c r="C185" s="3" t="s">
         <v>632</v>
       </c>
@@ -27093,9 +27151,7 @@
       <c r="A186" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="B186" s="2"/>
       <c r="C186" s="3" t="s">
         <v>637</v>
       </c>
@@ -27108,9 +27164,7 @@
       <c r="A187" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>639</v>
-      </c>
+      <c r="B187" s="2"/>
       <c r="C187" s="3" t="s">
         <v>641</v>
       </c>
@@ -27123,9 +27177,7 @@
       <c r="A188" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>643</v>
-      </c>
+      <c r="B188" s="2"/>
       <c r="C188" s="3" t="s">
         <v>644</v>
       </c>
@@ -27138,9 +27190,7 @@
       <c r="A189" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>646</v>
-      </c>
+      <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>645</v>
       </c>
@@ -27153,9 +27203,7 @@
       <c r="A190" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>649</v>
-      </c>
+      <c r="B190" s="2"/>
       <c r="C190" s="3" t="s">
         <v>653</v>
       </c>
@@ -27168,9 +27216,7 @@
       <c r="A191" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>655</v>
-      </c>
+      <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>657</v>
       </c>
@@ -27183,9 +27229,7 @@
       <c r="A192" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>659</v>
-      </c>
+      <c r="B192" s="2"/>
       <c r="C192" s="3" t="s">
         <v>662</v>
       </c>
@@ -27198,9 +27242,7 @@
       <c r="A193" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>664</v>
-      </c>
+      <c r="B193" s="2"/>
       <c r="C193" s="3" t="s">
         <v>663</v>
       </c>
@@ -27213,9 +27255,7 @@
       <c r="A194" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>667</v>
-      </c>
+      <c r="B194" s="2"/>
       <c r="C194" s="3" t="s">
         <v>668</v>
       </c>
@@ -27228,9 +27268,7 @@
       <c r="A195" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>670</v>
-      </c>
+      <c r="B195" s="2"/>
       <c r="C195" s="3" t="s">
         <v>672</v>
       </c>
@@ -27243,9 +27281,7 @@
       <c r="A196" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>674</v>
-      </c>
+      <c r="B196" s="2"/>
       <c r="C196" s="3" t="s">
         <v>673</v>
       </c>
@@ -27258,9 +27294,7 @@
       <c r="A197" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="B197" s="2"/>
       <c r="C197" s="3" t="s">
         <v>679</v>
       </c>
@@ -27273,9 +27307,7 @@
       <c r="A198" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="B198" s="2"/>
       <c r="C198" s="3" t="s">
         <v>681</v>
       </c>
@@ -27288,9 +27320,7 @@
       <c r="A199" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>682</v>
-      </c>
+      <c r="B199" s="2"/>
       <c r="C199" s="3" t="s">
         <v>682</v>
       </c>
@@ -27303,9 +27333,7 @@
       <c r="A200" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>684</v>
-      </c>
+      <c r="B200" s="2"/>
       <c r="C200" s="3" t="s">
         <v>687</v>
       </c>
@@ -27318,9 +27346,7 @@
       <c r="A201" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>689</v>
-      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="3" t="s">
         <v>692</v>
       </c>
@@ -27333,9 +27359,7 @@
       <c r="A202" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>693</v>
-      </c>
+      <c r="B202" s="2"/>
       <c r="C202" s="3" t="s">
         <v>695</v>
       </c>
@@ -27348,9 +27372,7 @@
       <c r="A203" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>697</v>
-      </c>
+      <c r="B203" s="2"/>
       <c r="C203" s="3" t="s">
         <v>699</v>
       </c>
@@ -27363,9 +27385,7 @@
       <c r="A204" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="B204" s="2"/>
       <c r="C204" s="3" t="s">
         <v>704</v>
       </c>
@@ -27378,9 +27398,7 @@
       <c r="A205" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>706</v>
-      </c>
+      <c r="B205" s="2"/>
       <c r="C205" s="3" t="s">
         <v>708</v>
       </c>
@@ -27393,9 +27411,7 @@
       <c r="A206" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>710</v>
-      </c>
+      <c r="B206" s="2"/>
       <c r="C206" s="3" t="s">
         <v>710</v>
       </c>
@@ -27408,9 +27424,7 @@
       <c r="A207" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>713</v>
-      </c>
+      <c r="B207" s="2"/>
       <c r="C207" s="3" t="s">
         <v>712</v>
       </c>
@@ -27423,9 +27437,7 @@
       <c r="A208" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>716</v>
-      </c>
+      <c r="B208" s="2"/>
       <c r="C208" s="3" t="s">
         <v>718</v>
       </c>
@@ -27438,9 +27450,7 @@
       <c r="A209" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>720</v>
-      </c>
+      <c r="B209" s="2"/>
       <c r="C209" s="3" t="s">
         <v>722</v>
       </c>
@@ -27453,9 +27463,7 @@
       <c r="A210" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>724</v>
-      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="3" t="s">
         <v>725</v>
       </c>
@@ -27468,9 +27476,7 @@
       <c r="A211" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>727</v>
-      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="3" t="s">
         <v>729</v>
       </c>
@@ -27483,9 +27489,7 @@
       <c r="A212" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>731</v>
-      </c>
+      <c r="B212" s="2"/>
       <c r="C212" s="3" t="s">
         <v>735</v>
       </c>
@@ -27498,9 +27502,7 @@
       <c r="A213" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>737</v>
-      </c>
+      <c r="B213" s="2"/>
       <c r="C213" s="3" t="s">
         <v>741</v>
       </c>
@@ -27513,9 +27515,7 @@
       <c r="A214" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>743</v>
-      </c>
+      <c r="B214" s="2"/>
       <c r="C214" s="3" t="s">
         <v>742</v>
       </c>
@@ -27528,9 +27528,7 @@
       <c r="A215" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>747</v>
-      </c>
+      <c r="B215" s="2"/>
       <c r="C215" s="3" t="s">
         <v>746</v>
       </c>
@@ -27543,9 +27541,7 @@
       <c r="A216" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>750</v>
-      </c>
+      <c r="B216" s="2"/>
       <c r="C216" s="3" t="s">
         <v>749</v>
       </c>
@@ -27558,9 +27554,7 @@
       <c r="A217" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>752</v>
-      </c>
+      <c r="B217" s="2"/>
       <c r="C217" s="3" t="s">
         <v>755</v>
       </c>
@@ -27573,9 +27567,7 @@
       <c r="A218" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>757</v>
-      </c>
+      <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>760</v>
       </c>
@@ -27588,9 +27580,7 @@
       <c r="A219" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>757</v>
-      </c>
+      <c r="B219" s="2"/>
       <c r="C219" s="3" t="s">
         <v>760</v>
       </c>
@@ -27603,9 +27593,7 @@
       <c r="A220" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>764</v>
-      </c>
+      <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>766</v>
       </c>
@@ -27618,9 +27606,7 @@
       <c r="A221" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>768</v>
-      </c>
+      <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
         <v>772</v>
       </c>
@@ -27633,9 +27619,7 @@
       <c r="A222" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>774</v>
-      </c>
+      <c r="B222" s="2"/>
       <c r="C222" s="3" t="s">
         <v>777</v>
       </c>
@@ -27648,9 +27632,7 @@
       <c r="A223" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>779</v>
-      </c>
+      <c r="B223" s="2"/>
       <c r="C223" s="3" t="s">
         <v>782</v>
       </c>
@@ -27663,9 +27645,7 @@
       <c r="A224" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>784</v>
-      </c>
+      <c r="B224" s="2"/>
       <c r="C224" s="3" t="s">
         <v>788</v>
       </c>
@@ -27678,9 +27658,7 @@
       <c r="A225" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>790</v>
-      </c>
+      <c r="B225" s="2"/>
       <c r="C225" s="3" t="s">
         <v>793</v>
       </c>
@@ -27693,9 +27671,7 @@
       <c r="A226" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>795</v>
-      </c>
+      <c r="B226" s="2"/>
       <c r="C226" s="3" t="s">
         <v>798</v>
       </c>
@@ -27708,9 +27684,7 @@
       <c r="A227" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>731</v>
-      </c>
+      <c r="B227" s="2"/>
       <c r="C227" s="3" t="s">
         <v>801</v>
       </c>
@@ -27723,9 +27697,7 @@
       <c r="A228" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>803</v>
-      </c>
+      <c r="B228" s="2"/>
       <c r="C228" s="3" t="s">
         <v>805</v>
       </c>
@@ -27738,9 +27710,7 @@
       <c r="A229" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>807</v>
-      </c>
+      <c r="B229" s="2"/>
       <c r="C229" s="3" t="s">
         <v>811</v>
       </c>
@@ -27753,9 +27723,7 @@
       <c r="A230" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>813</v>
-      </c>
+      <c r="B230" s="2"/>
       <c r="C230" s="3" t="s">
         <v>816</v>
       </c>
@@ -27768,9 +27736,7 @@
       <c r="A231" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>818</v>
-      </c>
+      <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>822</v>
       </c>
@@ -27783,9 +27749,7 @@
       <c r="A232" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>824</v>
-      </c>
+      <c r="B232" s="2"/>
       <c r="C232" s="3" t="s">
         <v>828</v>
       </c>
@@ -27798,9 +27762,7 @@
       <c r="A233" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>830</v>
-      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>832</v>
       </c>
@@ -27813,9 +27775,7 @@
       <c r="A234" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>834</v>
-      </c>
+      <c r="B234" s="2"/>
       <c r="C234" s="3" t="s">
         <v>836</v>
       </c>
@@ -27828,9 +27788,7 @@
       <c r="A235" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>838</v>
-      </c>
+      <c r="B235" s="2"/>
       <c r="C235" s="3" t="s">
         <v>840</v>
       </c>
@@ -27843,9 +27801,7 @@
       <c r="A236" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>842</v>
-      </c>
+      <c r="B236" s="2"/>
       <c r="C236" s="3" t="s">
         <v>845</v>
       </c>
@@ -27858,9 +27814,7 @@
       <c r="A237" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>842</v>
-      </c>
+      <c r="B237" s="2"/>
       <c r="C237" s="3" t="s">
         <v>845</v>
       </c>
@@ -27873,9 +27827,7 @@
       <c r="A238" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>848</v>
-      </c>
+      <c r="B238" s="2"/>
       <c r="C238" s="3" t="s">
         <v>851</v>
       </c>
@@ -27888,9 +27840,7 @@
       <c r="A239" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="B239" s="2"/>
       <c r="C239" s="3" t="s">
         <v>854</v>
       </c>
@@ -27903,9 +27853,7 @@
       <c r="A240" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>856</v>
-      </c>
+      <c r="B240" s="2"/>
       <c r="C240" s="3" t="s">
         <v>858</v>
       </c>
@@ -27918,9 +27866,7 @@
       <c r="A241" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>860</v>
-      </c>
+      <c r="B241" s="2"/>
       <c r="C241" s="3" t="s">
         <v>863</v>
       </c>
@@ -27933,9 +27879,7 @@
       <c r="A242" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="B242" s="2"/>
       <c r="C242" s="3" t="s">
         <v>868</v>
       </c>
@@ -27948,9 +27892,7 @@
       <c r="A243" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>870</v>
-      </c>
+      <c r="B243" s="2"/>
       <c r="C243" s="3" t="s">
         <v>873</v>
       </c>
@@ -27963,9 +27905,7 @@
       <c r="A244" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>875</v>
-      </c>
+      <c r="B244" s="2"/>
       <c r="C244" s="3" t="s">
         <v>877</v>
       </c>
@@ -27978,9 +27918,7 @@
       <c r="A245" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>879</v>
-      </c>
+      <c r="B245" s="2"/>
       <c r="C245" s="3" t="s">
         <v>881</v>
       </c>
@@ -27993,9 +27931,7 @@
       <c r="A246" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>883</v>
-      </c>
+      <c r="B246" s="2"/>
       <c r="C246" s="3" t="s">
         <v>885</v>
       </c>
@@ -28008,9 +27944,7 @@
       <c r="A247" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>887</v>
-      </c>
+      <c r="B247" s="2"/>
       <c r="C247" s="3" t="s">
         <v>889</v>
       </c>
@@ -28023,9 +27957,7 @@
       <c r="A248" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>891</v>
-      </c>
+      <c r="B248" s="2"/>
       <c r="C248" s="3" t="s">
         <v>893</v>
       </c>
@@ -28038,9 +27970,7 @@
       <c r="A249" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>895</v>
-      </c>
+      <c r="B249" s="2"/>
       <c r="C249" s="3" t="s">
         <v>899</v>
       </c>
@@ -28053,9 +27983,7 @@
       <c r="A250" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>901</v>
-      </c>
+      <c r="B250" s="2"/>
       <c r="C250" s="3" t="s">
         <v>904</v>
       </c>
@@ -28068,9 +27996,7 @@
       <c r="A251" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>906</v>
-      </c>
+      <c r="B251" s="2"/>
       <c r="C251" s="3" t="s">
         <v>909</v>
       </c>
@@ -28083,9 +28009,7 @@
       <c r="A252" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>911</v>
-      </c>
+      <c r="B252" s="2"/>
       <c r="C252" s="3" t="s">
         <v>914</v>
       </c>
@@ -28098,9 +28022,7 @@
       <c r="A253" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>917</v>
-      </c>
+      <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>920</v>
       </c>
@@ -28113,9 +28035,7 @@
       <c r="A254" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>922</v>
-      </c>
+      <c r="B254" s="2"/>
       <c r="C254" s="3" t="s">
         <v>925</v>
       </c>
@@ -28128,9 +28048,7 @@
       <c r="A255" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>927</v>
-      </c>
+      <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>926</v>
       </c>
@@ -28143,9 +28061,7 @@
       <c r="A256" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>929</v>
-      </c>
+      <c r="B256" s="2"/>
       <c r="C256" s="3" t="s">
         <v>932</v>
       </c>
@@ -28158,9 +28074,7 @@
       <c r="A257" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>934</v>
-      </c>
+      <c r="B257" s="2"/>
       <c r="C257" s="3" t="s">
         <v>801</v>
       </c>
@@ -28173,9 +28087,7 @@
       <c r="A258" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>937</v>
-      </c>
+      <c r="B258" s="2"/>
       <c r="C258" s="3" t="s">
         <v>939</v>
       </c>
@@ -28188,9 +28100,7 @@
       <c r="A259" s="2" t="s">
         <v>940</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>941</v>
-      </c>
+      <c r="B259" s="2"/>
       <c r="C259" s="3" t="s">
         <v>943</v>
       </c>
@@ -28203,9 +28113,7 @@
       <c r="A260" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>945</v>
-      </c>
+      <c r="B260" s="2"/>
       <c r="C260" s="3" t="s">
         <v>948</v>
       </c>
@@ -28218,9 +28126,7 @@
       <c r="A261" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>950</v>
-      </c>
+      <c r="B261" s="2"/>
       <c r="C261" s="3" t="s">
         <v>953</v>
       </c>
@@ -28233,9 +28139,7 @@
       <c r="A262" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>954</v>
-      </c>
+      <c r="B262" s="2"/>
       <c r="C262" s="3" t="s">
         <v>954</v>
       </c>
@@ -28248,9 +28152,7 @@
       <c r="A263" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>956</v>
-      </c>
+      <c r="B263" s="2"/>
       <c r="C263" s="3" t="s">
         <v>959</v>
       </c>
@@ -28263,9 +28165,7 @@
       <c r="A264" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>961</v>
-      </c>
+      <c r="B264" s="2"/>
       <c r="C264" s="3" t="s">
         <v>964</v>
       </c>
@@ -28278,9 +28178,7 @@
       <c r="A265" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>966</v>
-      </c>
+      <c r="B265" s="2"/>
       <c r="C265" s="3" t="s">
         <v>969</v>
       </c>
@@ -28293,9 +28191,7 @@
       <c r="A266" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>971</v>
-      </c>
+      <c r="B266" s="2"/>
       <c r="C266" s="3" t="s">
         <v>970</v>
       </c>
@@ -28308,9 +28204,7 @@
       <c r="A267" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>973</v>
-      </c>
+      <c r="B267" s="2"/>
       <c r="C267" s="3" t="s">
         <v>976</v>
       </c>
@@ -28323,9 +28217,7 @@
       <c r="A268" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>978</v>
-      </c>
+      <c r="B268" s="2"/>
       <c r="C268" s="3" t="s">
         <v>981</v>
       </c>
@@ -28338,9 +28230,7 @@
       <c r="A269" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>983</v>
-      </c>
+      <c r="B269" s="2"/>
       <c r="C269" s="3" t="s">
         <v>986</v>
       </c>
@@ -28353,9 +28243,7 @@
       <c r="A270" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>988</v>
-      </c>
+      <c r="B270" s="2"/>
       <c r="C270" s="3" t="s">
         <v>991</v>
       </c>
@@ -28368,9 +28256,7 @@
       <c r="A271" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>993</v>
-      </c>
+      <c r="B271" s="2"/>
       <c r="C271" s="3" t="s">
         <v>995</v>
       </c>
@@ -28383,9 +28269,7 @@
       <c r="A272" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>996</v>
-      </c>
+      <c r="B272" s="2"/>
       <c r="C272" s="3" t="s">
         <v>998</v>
       </c>
@@ -28398,9 +28282,7 @@
       <c r="A273" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>999</v>
-      </c>
+      <c r="B273" s="2"/>
       <c r="C273" s="3" t="s">
         <v>999</v>
       </c>
@@ -28413,9 +28295,7 @@
       <c r="A274" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>1002</v>
-      </c>
+      <c r="B274" s="2"/>
       <c r="C274" s="3" t="s">
         <v>1005</v>
       </c>
@@ -28428,9 +28308,7 @@
       <c r="A275" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>1007</v>
-      </c>
+      <c r="B275" s="2"/>
       <c r="C275" s="3" t="s">
         <v>1006</v>
       </c>
@@ -28443,9 +28321,7 @@
       <c r="A276" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>1009</v>
-      </c>
+      <c r="B276" s="2"/>
       <c r="C276" s="3" t="s">
         <v>1008</v>
       </c>
@@ -28458,9 +28334,7 @@
       <c r="A277" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>1011</v>
-      </c>
+      <c r="B277" s="2"/>
       <c r="C277" s="3" t="s">
         <v>1013</v>
       </c>
@@ -28473,9 +28347,7 @@
       <c r="A278" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>1015</v>
-      </c>
+      <c r="B278" s="2"/>
       <c r="C278" s="3" t="s">
         <v>1017</v>
       </c>
@@ -28488,9 +28360,7 @@
       <c r="A279" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>1019</v>
-      </c>
+      <c r="B279" s="2"/>
       <c r="C279" s="3" t="s">
         <v>1022</v>
       </c>
@@ -28503,9 +28373,7 @@
       <c r="A280" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>1024</v>
-      </c>
+      <c r="B280" s="2"/>
       <c r="C280" s="3" t="s">
         <v>1028</v>
       </c>
@@ -28518,9 +28386,7 @@
       <c r="A281" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>1030</v>
-      </c>
+      <c r="B281" s="2"/>
       <c r="C281" s="3" t="s">
         <v>1033</v>
       </c>
@@ -28533,9 +28399,7 @@
       <c r="A282" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>1035</v>
-      </c>
+      <c r="B282" s="2"/>
       <c r="C282" s="3" t="s">
         <v>1038</v>
       </c>
@@ -28548,9 +28412,7 @@
       <c r="A283" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>1040</v>
-      </c>
+      <c r="B283" s="2"/>
       <c r="C283" s="3" t="s">
         <v>1039</v>
       </c>
@@ -28563,9 +28425,7 @@
       <c r="A284" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>1043</v>
-      </c>
+      <c r="B284" s="2"/>
       <c r="C284" s="3" t="s">
         <v>1046</v>
       </c>
@@ -28578,9 +28438,7 @@
       <c r="A285" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>1048</v>
-      </c>
+      <c r="B285" s="2"/>
       <c r="C285" s="3" t="s">
         <v>1050</v>
       </c>
@@ -28593,9 +28451,7 @@
       <c r="A286" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>1052</v>
-      </c>
+      <c r="B286" s="2"/>
       <c r="C286" s="3" t="s">
         <v>1055</v>
       </c>
@@ -28608,9 +28464,7 @@
       <c r="A287" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>1057</v>
-      </c>
+      <c r="B287" s="2"/>
       <c r="C287" s="3" t="s">
         <v>1060</v>
       </c>
@@ -28623,9 +28477,7 @@
       <c r="A288" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>1062</v>
-      </c>
+      <c r="B288" s="2"/>
       <c r="C288" s="3" t="s">
         <v>1065</v>
       </c>
@@ -28638,9 +28490,7 @@
       <c r="A289" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>1067</v>
-      </c>
+      <c r="B289" s="2"/>
       <c r="C289" s="3" t="s">
         <v>1070</v>
       </c>
@@ -28653,9 +28503,7 @@
       <c r="A290" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>1072</v>
-      </c>
+      <c r="B290" s="2"/>
       <c r="C290" s="3" t="s">
         <v>1074</v>
       </c>
@@ -28668,9 +28516,7 @@
       <c r="A291" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>1076</v>
-      </c>
+      <c r="B291" s="2"/>
       <c r="C291" s="3" t="s">
         <v>1078</v>
       </c>
@@ -28683,9 +28529,7 @@
       <c r="A292" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>1080</v>
-      </c>
+      <c r="B292" s="2"/>
       <c r="C292" s="3" t="s">
         <v>1081</v>
       </c>
@@ -28698,9 +28542,7 @@
       <c r="A293" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>1083</v>
-      </c>
+      <c r="B293" s="2"/>
       <c r="C293" s="3" t="s">
         <v>1086</v>
       </c>
@@ -28713,9 +28555,7 @@
       <c r="A294" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>1088</v>
-      </c>
+      <c r="B294" s="2"/>
       <c r="C294" s="3" t="s">
         <v>1091</v>
       </c>
@@ -28728,9 +28568,7 @@
       <c r="A295" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>1093</v>
-      </c>
+      <c r="B295" s="2"/>
       <c r="C295" s="3" t="s">
         <v>1095</v>
       </c>
@@ -28743,9 +28581,7 @@
       <c r="A296" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>1097</v>
-      </c>
+      <c r="B296" s="2"/>
       <c r="C296" s="3" t="s">
         <v>1100</v>
       </c>
@@ -28758,9 +28594,7 @@
       <c r="A297" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>1102</v>
-      </c>
+      <c r="B297" s="2"/>
       <c r="C297" s="3" t="s">
         <v>1101</v>
       </c>
@@ -28773,9 +28607,7 @@
       <c r="A298" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>1105</v>
-      </c>
+      <c r="B298" s="2"/>
       <c r="C298" s="3" t="s">
         <v>1107</v>
       </c>
@@ -28788,9 +28620,7 @@
       <c r="A299" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>1108</v>
-      </c>
+      <c r="B299" s="2"/>
       <c r="C299" s="3" t="s">
         <v>1110</v>
       </c>
@@ -28803,9 +28633,7 @@
       <c r="A300" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>1112</v>
-      </c>
+      <c r="B300" s="2"/>
       <c r="C300" s="3" t="s">
         <v>1116</v>
       </c>
@@ -28818,9 +28646,7 @@
       <c r="A301" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>1117</v>
-      </c>
+      <c r="B301" s="2"/>
       <c r="C301" s="3" t="s">
         <v>1120</v>
       </c>
@@ -28833,9 +28659,7 @@
       <c r="A302" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>1122</v>
-      </c>
+      <c r="B302" s="2"/>
       <c r="C302" s="3" t="s">
         <v>1126</v>
       </c>
@@ -28848,9 +28672,7 @@
       <c r="A303" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>1128</v>
-      </c>
+      <c r="B303" s="2"/>
       <c r="C303" s="3" t="s">
         <v>1132</v>
       </c>
@@ -28863,9 +28685,7 @@
       <c r="A304" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="B304" s="2"/>
       <c r="C304" s="3" t="s">
         <v>1137</v>
       </c>
@@ -28878,9 +28698,7 @@
       <c r="A305" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>1139</v>
-      </c>
+      <c r="B305" s="2"/>
       <c r="C305" s="3" t="s">
         <v>1141</v>
       </c>
@@ -28893,9 +28711,7 @@
       <c r="A306" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>1143</v>
-      </c>
+      <c r="B306" s="2"/>
       <c r="C306" s="3" t="s">
         <v>1144</v>
       </c>
@@ -28908,9 +28724,7 @@
       <c r="A307" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>1146</v>
-      </c>
+      <c r="B307" s="2"/>
       <c r="C307" s="3" t="s">
         <v>1145</v>
       </c>
@@ -28923,9 +28737,7 @@
       <c r="A308" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>1149</v>
-      </c>
+      <c r="B308" s="2"/>
       <c r="C308" s="3" t="s">
         <v>1151</v>
       </c>
@@ -28938,9 +28750,7 @@
       <c r="A309" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>1153</v>
-      </c>
+      <c r="B309" s="2"/>
       <c r="C309" s="3" t="s">
         <v>1155</v>
       </c>
@@ -28953,9 +28763,7 @@
       <c r="A310" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>1157</v>
-      </c>
+      <c r="B310" s="2"/>
       <c r="C310" s="3" t="s">
         <v>1156</v>
       </c>
@@ -28968,9 +28776,7 @@
       <c r="A311" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>1160</v>
-      </c>
+      <c r="B311" s="2"/>
       <c r="C311" s="3" t="s">
         <v>1159</v>
       </c>
@@ -28983,9 +28789,7 @@
       <c r="A312" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>1163</v>
-      </c>
+      <c r="B312" s="2"/>
       <c r="C312" s="3" t="s">
         <v>1165</v>
       </c>
@@ -28998,9 +28802,7 @@
       <c r="A313" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>1167</v>
-      </c>
+      <c r="B313" s="2"/>
       <c r="C313" s="3" t="s">
         <v>1170</v>
       </c>
@@ -29013,9 +28815,7 @@
       <c r="A314" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>1172</v>
-      </c>
+      <c r="B314" s="2"/>
       <c r="C314" s="3" t="s">
         <v>1176</v>
       </c>
@@ -29028,9 +28828,7 @@
       <c r="A315" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>1178</v>
-      </c>
+      <c r="B315" s="2"/>
       <c r="C315" s="3" t="s">
         <v>1181</v>
       </c>
@@ -29043,9 +28841,7 @@
       <c r="A316" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>1183</v>
-      </c>
+      <c r="B316" s="2"/>
       <c r="C316" s="3" t="s">
         <v>1182</v>
       </c>
@@ -29058,9 +28854,7 @@
       <c r="A317" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>1185</v>
-      </c>
+      <c r="B317" s="2"/>
       <c r="C317" s="3" t="s">
         <v>1188</v>
       </c>
@@ -29073,9 +28867,7 @@
       <c r="A318" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>1190</v>
-      </c>
+      <c r="B318" s="2"/>
       <c r="C318" s="3" t="s">
         <v>1193</v>
       </c>
@@ -29088,9 +28880,7 @@
       <c r="A319" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>1195</v>
-      </c>
+      <c r="B319" s="2"/>
       <c r="C319" s="3" t="s">
         <v>1196</v>
       </c>
@@ -29103,9 +28893,7 @@
       <c r="A320" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>1198</v>
-      </c>
+      <c r="B320" s="2"/>
       <c r="C320" s="3" t="s">
         <v>1201</v>
       </c>
@@ -29118,9 +28906,7 @@
       <c r="A321" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>1202</v>
-      </c>
+      <c r="B321" s="2"/>
       <c r="C321" s="3" t="s">
         <v>1202</v>
       </c>
@@ -29133,9 +28919,7 @@
       <c r="A322" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>1206</v>
-      </c>
+      <c r="B322" s="2"/>
       <c r="C322" s="3" t="s">
         <v>1210</v>
       </c>
@@ -29148,9 +28932,7 @@
       <c r="A323" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>1212</v>
-      </c>
+      <c r="B323" s="2"/>
       <c r="C323" s="3" t="s">
         <v>1215</v>
       </c>
@@ -29163,9 +28945,7 @@
       <c r="A324" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>1217</v>
-      </c>
+      <c r="B324" s="2"/>
       <c r="C324" s="3" t="s">
         <v>1220</v>
       </c>
@@ -29178,9 +28958,7 @@
       <c r="A325" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>1222</v>
-      </c>
+      <c r="B325" s="2"/>
       <c r="C325" s="3" t="s">
         <v>1225</v>
       </c>
@@ -29193,9 +28971,7 @@
       <c r="A326" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>1227</v>
-      </c>
+      <c r="B326" s="2"/>
       <c r="C326" s="3" t="s">
         <v>1230</v>
       </c>
@@ -29208,9 +28984,7 @@
       <c r="A327" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>1232</v>
-      </c>
+      <c r="B327" s="2"/>
       <c r="C327" s="3" t="s">
         <v>1234</v>
       </c>
@@ -29223,9 +28997,7 @@
       <c r="A328" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>1235</v>
-      </c>
+      <c r="B328" s="2"/>
       <c r="C328" s="3" t="s">
         <v>1236</v>
       </c>
@@ -29238,9 +29010,7 @@
       <c r="A329" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>1237</v>
-      </c>
+      <c r="B329" s="2"/>
       <c r="C329" s="3" t="s">
         <v>1239</v>
       </c>
@@ -29253,9 +29023,7 @@
       <c r="A330" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>1241</v>
-      </c>
+      <c r="B330" s="2"/>
       <c r="C330" s="3" t="s">
         <v>1244</v>
       </c>
@@ -29268,9 +29036,7 @@
       <c r="A331" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>1246</v>
-      </c>
+      <c r="B331" s="2"/>
       <c r="C331" s="3" t="s">
         <v>1249</v>
       </c>
@@ -29283,9 +29049,7 @@
       <c r="A332" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>1250</v>
-      </c>
+      <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>1250</v>
       </c>
@@ -29298,9 +29062,7 @@
       <c r="A333" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>1253</v>
-      </c>
+      <c r="B333" s="2"/>
       <c r="C333" s="3" t="s">
         <v>1256</v>
       </c>
@@ -29313,9 +29075,7 @@
       <c r="A334" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>1258</v>
-      </c>
+      <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>1260</v>
       </c>
@@ -29328,9 +29088,7 @@
       <c r="A335" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>1262</v>
-      </c>
+      <c r="B335" s="2"/>
       <c r="C335" s="3" t="s">
         <v>1265</v>
       </c>
@@ -29343,9 +29101,7 @@
       <c r="A336" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>1267</v>
-      </c>
+      <c r="B336" s="2"/>
       <c r="C336" s="3" t="s">
         <v>1269</v>
       </c>
@@ -29358,9 +29114,7 @@
       <c r="A337" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>1271</v>
-      </c>
+      <c r="B337" s="2"/>
       <c r="C337" s="3" t="s">
         <v>1273</v>
       </c>
@@ -29373,9 +29127,7 @@
       <c r="A338" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>1275</v>
-      </c>
+      <c r="B338" s="2"/>
       <c r="C338" s="3" t="s">
         <v>1277</v>
       </c>
@@ -29388,9 +29140,7 @@
       <c r="A339" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>1280</v>
-      </c>
+      <c r="B339" s="2"/>
       <c r="C339" s="3" t="s">
         <v>1282</v>
       </c>
@@ -29403,9 +29153,7 @@
       <c r="A340" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>1285</v>
-      </c>
+      <c r="B340" s="2"/>
       <c r="C340" s="3" t="s">
         <v>1287</v>
       </c>
@@ -29418,9 +29166,7 @@
       <c r="A341" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>1289</v>
-      </c>
+      <c r="B341" s="2"/>
       <c r="C341" s="3" t="s">
         <v>1288</v>
       </c>
@@ -29433,9 +29179,7 @@
       <c r="A342" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>1293</v>
-      </c>
+      <c r="B342" s="2"/>
       <c r="C342" s="3" t="s">
         <v>1294</v>
       </c>
@@ -29448,9 +29192,7 @@
       <c r="A343" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>1296</v>
-      </c>
+      <c r="B343" s="2"/>
       <c r="C343" s="3" t="s">
         <v>1295</v>
       </c>
@@ -29463,9 +29205,7 @@
       <c r="A344" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>1298</v>
-      </c>
+      <c r="B344" s="2"/>
       <c r="C344" s="3" t="s">
         <v>1301</v>
       </c>
@@ -29478,9 +29218,7 @@
       <c r="A345" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>1303</v>
-      </c>
+      <c r="B345" s="2"/>
       <c r="C345" s="3" t="s">
         <v>1306</v>
       </c>
@@ -29493,9 +29231,7 @@
       <c r="A346" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>1308</v>
-      </c>
+      <c r="B346" s="2"/>
       <c r="C346" s="3" t="s">
         <v>1310</v>
       </c>
@@ -29508,9 +29244,7 @@
       <c r="A347" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>1312</v>
-      </c>
+      <c r="B347" s="2"/>
       <c r="C347" s="3" t="s">
         <v>1314</v>
       </c>
@@ -29523,9 +29257,7 @@
       <c r="A348" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>1316</v>
-      </c>
+      <c r="B348" s="2"/>
       <c r="C348" s="3" t="s">
         <v>1315</v>
       </c>
@@ -29538,9 +29270,7 @@
       <c r="A349" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>1319</v>
-      </c>
+      <c r="B349" s="2"/>
       <c r="C349" s="3" t="s">
         <v>1320</v>
       </c>
@@ -29553,9 +29283,7 @@
       <c r="A350" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>1322</v>
-      </c>
+      <c r="B350" s="2"/>
       <c r="C350" s="3" t="s">
         <v>1325</v>
       </c>
@@ -29568,9 +29296,7 @@
       <c r="A351" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>1327</v>
-      </c>
+      <c r="B351" s="2"/>
       <c r="C351" s="3" t="s">
         <v>1329</v>
       </c>
@@ -29583,9 +29309,7 @@
       <c r="A352" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>1331</v>
-      </c>
+      <c r="B352" s="2"/>
       <c r="C352" s="3" t="s">
         <v>1334</v>
       </c>
@@ -29598,9 +29322,7 @@
       <c r="A353" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>1336</v>
-      </c>
+      <c r="B353" s="2"/>
       <c r="C353" s="3" t="s">
         <v>1339</v>
       </c>
@@ -29613,9 +29335,7 @@
       <c r="A354" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>1341</v>
-      </c>
+      <c r="B354" s="2"/>
       <c r="C354" s="3" t="s">
         <v>1344</v>
       </c>
@@ -29628,9 +29348,7 @@
       <c r="A355" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>1346</v>
-      </c>
+      <c r="B355" s="2"/>
       <c r="C355" s="3" t="s">
         <v>1349</v>
       </c>
@@ -29643,9 +29361,7 @@
       <c r="A356" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>1351</v>
-      </c>
+      <c r="B356" s="2"/>
       <c r="C356" s="3" t="s">
         <v>1354</v>
       </c>
@@ -29658,9 +29374,7 @@
       <c r="A357" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>1356</v>
-      </c>
+      <c r="B357" s="2"/>
       <c r="C357" s="3" t="s">
         <v>1358</v>
       </c>
@@ -29673,9 +29387,7 @@
       <c r="A358" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>1360</v>
-      </c>
+      <c r="B358" s="2"/>
       <c r="C358" s="3" t="s">
         <v>1362</v>
       </c>
@@ -29688,9 +29400,7 @@
       <c r="A359" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>1364</v>
-      </c>
+      <c r="B359" s="2"/>
       <c r="C359" s="3" t="s">
         <v>1366</v>
       </c>
@@ -29703,9 +29413,7 @@
       <c r="A360" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>1369</v>
-      </c>
+      <c r="B360" s="2"/>
       <c r="C360" s="3" t="s">
         <v>1371</v>
       </c>
@@ -29718,9 +29426,7 @@
       <c r="A361" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>1374</v>
-      </c>
+      <c r="B361" s="2"/>
       <c r="C361" s="3" t="s">
         <v>1376</v>
       </c>
@@ -29733,9 +29439,7 @@
       <c r="A362" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>1378</v>
-      </c>
+      <c r="B362" s="2"/>
       <c r="C362" s="3" t="s">
         <v>1380</v>
       </c>
@@ -29748,9 +29452,7 @@
       <c r="A363" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>1381</v>
-      </c>
+      <c r="B363" s="2"/>
       <c r="C363" s="3" t="s">
         <v>1381</v>
       </c>
@@ -29763,9 +29465,7 @@
       <c r="A364" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>1384</v>
-      </c>
+      <c r="B364" s="2"/>
       <c r="C364" s="3" t="s">
         <v>1387</v>
       </c>
@@ -29778,9 +29478,7 @@
       <c r="A365" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>1389</v>
-      </c>
+      <c r="B365" s="2"/>
       <c r="C365" s="3" t="s">
         <v>1392</v>
       </c>
@@ -29793,9 +29491,7 @@
       <c r="A366" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>1390</v>
-      </c>
+      <c r="B366" s="2"/>
       <c r="C366" s="3" t="s">
         <v>1392</v>
       </c>
@@ -29808,9 +29504,7 @@
       <c r="A367" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>1394</v>
-      </c>
+      <c r="B367" s="2"/>
       <c r="C367" s="3" t="s">
         <v>1394</v>
       </c>
@@ -29823,9 +29517,7 @@
       <c r="A368" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>1396</v>
-      </c>
+      <c r="B368" s="2"/>
       <c r="C368" s="3" t="s">
         <v>1398</v>
       </c>
@@ -29838,9 +29530,7 @@
       <c r="A369" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>1400</v>
-      </c>
+      <c r="B369" s="2"/>
       <c r="C369" s="3" t="s">
         <v>1402</v>
       </c>
@@ -29853,9 +29543,7 @@
       <c r="A370" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>1404</v>
-      </c>
+      <c r="B370" s="2"/>
       <c r="C370" s="3" t="s">
         <v>1407</v>
       </c>
@@ -29868,9 +29556,7 @@
       <c r="A371" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>1409</v>
-      </c>
+      <c r="B371" s="2"/>
       <c r="C371" s="3" t="s">
         <v>1411</v>
       </c>
@@ -29883,9 +29569,7 @@
       <c r="A372" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="B372" s="2" t="s">
-        <v>1413</v>
-      </c>
+      <c r="B372" s="2"/>
       <c r="C372" s="3" t="s">
         <v>1415</v>
       </c>
@@ -29898,9 +29582,7 @@
       <c r="A373" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>1417</v>
-      </c>
+      <c r="B373" s="2"/>
       <c r="C373" s="3" t="s">
         <v>1419</v>
       </c>
@@ -29913,9 +29595,7 @@
       <c r="A374" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>1421</v>
-      </c>
+      <c r="B374" s="2"/>
       <c r="C374" s="3" t="s">
         <v>1420</v>
       </c>
@@ -29928,9 +29608,7 @@
       <c r="A375" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>1424</v>
-      </c>
+      <c r="B375" s="2"/>
       <c r="C375" s="3" t="s">
         <v>1426</v>
       </c>
@@ -29943,9 +29621,7 @@
       <c r="A376" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>1427</v>
-      </c>
+      <c r="B376" s="2"/>
       <c r="C376" s="3" t="s">
         <v>1427</v>
       </c>
@@ -29958,9 +29634,7 @@
       <c r="A377" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>1430</v>
-      </c>
+      <c r="B377" s="2"/>
       <c r="C377" s="3" t="s">
         <v>1432</v>
       </c>
@@ -29973,9 +29647,7 @@
       <c r="A378" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>1434</v>
-      </c>
+      <c r="B378" s="2"/>
       <c r="C378" s="3" t="s">
         <v>1437</v>
       </c>
@@ -29988,9 +29660,7 @@
       <c r="A379" s="2" t="s">
         <v>1438</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>1439</v>
-      </c>
+      <c r="B379" s="2"/>
       <c r="C379" s="3" t="s">
         <v>1438</v>
       </c>
@@ -30003,9 +29673,7 @@
       <c r="A380" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>1443</v>
-      </c>
+      <c r="B380" s="2"/>
       <c r="C380" s="3" t="s">
         <v>1445</v>
       </c>
@@ -30018,9 +29686,7 @@
       <c r="A381" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="B381" s="2" t="s">
-        <v>1447</v>
-      </c>
+      <c r="B381" s="2"/>
       <c r="C381" s="3" t="s">
         <v>1450</v>
       </c>
@@ -30033,9 +29699,7 @@
       <c r="A382" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>1448</v>
-      </c>
+      <c r="B382" s="2"/>
       <c r="C382" s="3" t="s">
         <v>1454</v>
       </c>
@@ -30048,9 +29712,7 @@
       <c r="A383" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>1455</v>
-      </c>
+      <c r="B383" s="2"/>
       <c r="C383" s="3" t="s">
         <v>687</v>
       </c>
@@ -30063,9 +29725,7 @@
       <c r="A384" s="2" t="s">
         <v>1456</v>
       </c>
-      <c r="B384" s="2" t="s">
-        <v>1457</v>
-      </c>
+      <c r="B384" s="2"/>
       <c r="C384" s="3" t="s">
         <v>1459</v>
       </c>
@@ -30078,9 +29738,7 @@
       <c r="A385" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>1461</v>
-      </c>
+      <c r="B385" s="2"/>
       <c r="C385" s="3" t="s">
         <v>1463</v>
       </c>
@@ -30093,9 +29751,7 @@
       <c r="A386" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>1465</v>
-      </c>
+      <c r="B386" s="2"/>
       <c r="C386" s="3" t="s">
         <v>1468</v>
       </c>
@@ -30108,9 +29764,7 @@
       <c r="A387" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>1470</v>
-      </c>
+      <c r="B387" s="2"/>
       <c r="C387" s="3" t="s">
         <v>1473</v>
       </c>
@@ -30123,9 +29777,7 @@
       <c r="A388" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="B388" s="2" t="s">
-        <v>1475</v>
-      </c>
+      <c r="B388" s="2"/>
       <c r="C388" s="3" t="s">
         <v>1473</v>
       </c>
@@ -30138,9 +29790,7 @@
       <c r="A389" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="B389" s="2" t="s">
-        <v>1471</v>
-      </c>
+      <c r="B389" s="2"/>
       <c r="C389" s="3" t="s">
         <v>1479</v>
       </c>
@@ -30153,9 +29803,7 @@
       <c r="A390" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="B390" s="2" t="s">
-        <v>1481</v>
-      </c>
+      <c r="B390" s="2"/>
       <c r="C390" s="3" t="s">
         <v>1483</v>
       </c>
@@ -30168,9 +29816,7 @@
       <c r="A391" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>1485</v>
-      </c>
+      <c r="B391" s="2"/>
       <c r="C391" s="3" t="s">
         <v>1484</v>
       </c>
@@ -30183,9 +29829,7 @@
       <c r="A392" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>1489</v>
-      </c>
+      <c r="B392" s="2"/>
       <c r="C392" s="3" t="s">
         <v>1488</v>
       </c>
@@ -30198,9 +29842,7 @@
       <c r="A393" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>1493</v>
-      </c>
+      <c r="B393" s="2"/>
       <c r="C393" s="3" t="s">
         <v>1494</v>
       </c>
@@ -30213,9 +29855,7 @@
       <c r="A394" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>1497</v>
-      </c>
+      <c r="B394" s="2"/>
       <c r="C394" s="3" t="s">
         <v>1499</v>
       </c>
@@ -30228,9 +29868,7 @@
       <c r="A395" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="B395" s="2" t="s">
-        <v>1501</v>
-      </c>
+      <c r="B395" s="2"/>
       <c r="C395" s="3" t="s">
         <v>1504</v>
       </c>
@@ -30243,9 +29881,7 @@
       <c r="A396" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>1506</v>
-      </c>
+      <c r="B396" s="2"/>
       <c r="C396" s="3" t="s">
         <v>1508</v>
       </c>
@@ -30258,9 +29894,7 @@
       <c r="A397" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>1510</v>
-      </c>
+      <c r="B397" s="2"/>
       <c r="C397" s="3" t="s">
         <v>1513</v>
       </c>
@@ -30273,9 +29907,7 @@
       <c r="A398" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="B398" s="2" t="s">
-        <v>1515</v>
-      </c>
+      <c r="B398" s="2"/>
       <c r="C398" s="3" t="s">
         <v>1517</v>
       </c>
@@ -30288,9 +29920,7 @@
       <c r="A399" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>1519</v>
-      </c>
+      <c r="B399" s="2"/>
       <c r="C399" s="3" t="s">
         <v>1521</v>
       </c>
@@ -30303,9 +29933,7 @@
       <c r="A400" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>1523</v>
-      </c>
+      <c r="B400" s="2"/>
       <c r="C400" s="3" t="s">
         <v>1525</v>
       </c>
@@ -30318,9 +29946,7 @@
       <c r="A401" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B401" s="2" t="s">
-        <v>1527</v>
-      </c>
+      <c r="B401" s="2"/>
       <c r="C401" s="3" t="s">
         <v>1526</v>
       </c>
@@ -30333,9 +29959,7 @@
       <c r="A402" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>1529</v>
-      </c>
+      <c r="B402" s="2"/>
       <c r="C402" s="3" t="s">
         <v>1532</v>
       </c>
@@ -30348,9 +29972,7 @@
       <c r="A403" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="B403" s="2" t="s">
-        <v>1534</v>
-      </c>
+      <c r="B403" s="2"/>
       <c r="C403" s="3" t="s">
         <v>1537</v>
       </c>
@@ -30363,9 +29985,7 @@
       <c r="A404" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>1539</v>
-      </c>
+      <c r="B404" s="2"/>
       <c r="C404" s="3" t="s">
         <v>1542</v>
       </c>
@@ -30378,9 +29998,7 @@
       <c r="A405" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>1544</v>
-      </c>
+      <c r="B405" s="2"/>
       <c r="C405" s="3" t="s">
         <v>1547</v>
       </c>
@@ -30393,9 +30011,7 @@
       <c r="A406" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>1549</v>
-      </c>
+      <c r="B406" s="2"/>
       <c r="C406" s="3" t="s">
         <v>1552</v>
       </c>
@@ -30408,9 +30024,7 @@
       <c r="A407" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>1554</v>
-      </c>
+      <c r="B407" s="2"/>
       <c r="C407" s="3" t="s">
         <v>1556</v>
       </c>
@@ -30423,9 +30037,7 @@
       <c r="A408" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>1558</v>
-      </c>
+      <c r="B408" s="2"/>
       <c r="C408" s="3" t="s">
         <v>1557</v>
       </c>
@@ -30438,9 +30050,7 @@
       <c r="A409" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>1560</v>
-      </c>
+      <c r="B409" s="2"/>
       <c r="C409" s="3" t="s">
         <v>1561</v>
       </c>
@@ -30453,9 +30063,7 @@
       <c r="A410" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>1563</v>
-      </c>
+      <c r="B410" s="2"/>
       <c r="C410" s="3" t="s">
         <v>1565</v>
       </c>
@@ -30468,9 +30076,7 @@
       <c r="A411" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>1530</v>
-      </c>
+      <c r="B411" s="2"/>
       <c r="C411" s="3" t="s">
         <v>1568</v>
       </c>
@@ -30483,9 +30089,7 @@
       <c r="A412" s="2" t="s">
         <v>1569</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>1540</v>
-      </c>
+      <c r="B412" s="2"/>
       <c r="C412" s="3" t="s">
         <v>1542</v>
       </c>
@@ -30498,9 +30102,7 @@
       <c r="A413" s="2" t="s">
         <v>1570</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>1571</v>
-      </c>
+      <c r="B413" s="2"/>
       <c r="C413" s="3" t="s">
         <v>1570</v>
       </c>
@@ -30513,9 +30115,7 @@
       <c r="A414" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>1574</v>
-      </c>
+      <c r="B414" s="2"/>
       <c r="C414" s="3" t="s">
         <v>1576</v>
       </c>
@@ -30528,9 +30128,7 @@
       <c r="A415" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>1578</v>
-      </c>
+      <c r="B415" s="2"/>
       <c r="C415" s="3" t="s">
         <v>1581</v>
       </c>
@@ -30543,9 +30141,7 @@
       <c r="A416" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>1583</v>
-      </c>
+      <c r="B416" s="2"/>
       <c r="C416" s="3" t="s">
         <v>1582</v>
       </c>
@@ -30558,9 +30154,7 @@
       <c r="A417" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>1586</v>
-      </c>
+      <c r="B417" s="2"/>
       <c r="C417" s="3" t="s">
         <v>1588</v>
       </c>
@@ -30573,9 +30167,7 @@
       <c r="A418" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>1590</v>
-      </c>
+      <c r="B418" s="2"/>
       <c r="C418" s="3" t="s">
         <v>1593</v>
       </c>
@@ -30588,9 +30180,7 @@
       <c r="A419" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>1595</v>
-      </c>
+      <c r="B419" s="2"/>
       <c r="C419" s="3" t="s">
         <v>1598</v>
       </c>
@@ -30603,9 +30193,7 @@
       <c r="A420" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>1595</v>
-      </c>
+      <c r="B420" s="2"/>
       <c r="C420" s="3" t="s">
         <v>1598</v>
       </c>
@@ -30618,9 +30206,7 @@
       <c r="A421" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>1600</v>
-      </c>
+      <c r="B421" s="2"/>
       <c r="C421" s="3" t="s">
         <v>1600</v>
       </c>
@@ -30633,9 +30219,7 @@
       <c r="A422" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>1602</v>
-      </c>
+      <c r="B422" s="2"/>
       <c r="C422" s="3" t="s">
         <v>1601</v>
       </c>
@@ -30648,9 +30232,7 @@
       <c r="A423" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>1605</v>
-      </c>
+      <c r="B423" s="2"/>
       <c r="C423" s="3" t="s">
         <v>1607</v>
       </c>
@@ -30663,9 +30245,7 @@
       <c r="A424" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>1609</v>
-      </c>
+      <c r="B424" s="2"/>
       <c r="C424" s="3" t="s">
         <v>1608</v>
       </c>
@@ -30678,9 +30258,7 @@
       <c r="A425" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>1612</v>
-      </c>
+      <c r="B425" s="2"/>
       <c r="C425" s="3" t="s">
         <v>1615</v>
       </c>
@@ -30693,9 +30271,7 @@
       <c r="A426" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>1617</v>
-      </c>
+      <c r="B426" s="2"/>
       <c r="C426" s="3" t="s">
         <v>1619</v>
       </c>
@@ -30708,9 +30284,7 @@
       <c r="A427" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>1621</v>
-      </c>
+      <c r="B427" s="2"/>
       <c r="C427" s="3" t="s">
         <v>1620</v>
       </c>
@@ -30723,9 +30297,7 @@
       <c r="A428" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>1625</v>
-      </c>
+      <c r="B428" s="2"/>
       <c r="C428" s="3" t="s">
         <v>1628</v>
       </c>
@@ -30738,9 +30310,7 @@
       <c r="A429" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>1630</v>
-      </c>
+      <c r="B429" s="2"/>
       <c r="C429" s="3" t="s">
         <v>1633</v>
       </c>
@@ -30753,9 +30323,7 @@
       <c r="A430" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>1634</v>
-      </c>
+      <c r="B430" s="2"/>
       <c r="C430" s="3" t="s">
         <v>1637</v>
       </c>
@@ -30768,9 +30336,7 @@
       <c r="A431" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>1639</v>
-      </c>
+      <c r="B431" s="2"/>
       <c r="C431" s="3" t="s">
         <v>1641</v>
       </c>
@@ -30783,9 +30349,7 @@
       <c r="A432" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>1643</v>
-      </c>
+      <c r="B432" s="2"/>
       <c r="C432" s="3" t="s">
         <v>1645</v>
       </c>
@@ -30798,9 +30362,7 @@
       <c r="A433" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>1647</v>
-      </c>
+      <c r="B433" s="2"/>
       <c r="C433" s="3" t="s">
         <v>1646</v>
       </c>
@@ -30813,9 +30375,7 @@
       <c r="A434" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>1650</v>
-      </c>
+      <c r="B434" s="2"/>
       <c r="C434" s="3" t="s">
         <v>1649</v>
       </c>
@@ -30828,9 +30388,7 @@
       <c r="A435" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>1653</v>
-      </c>
+      <c r="B435" s="2"/>
       <c r="C435" s="3" t="s">
         <v>1656</v>
       </c>
@@ -30843,9 +30401,7 @@
       <c r="A436" s="2" t="s">
         <v>1657</v>
       </c>
-      <c r="B436" s="2" t="s">
-        <v>1658</v>
-      </c>
+      <c r="B436" s="2"/>
       <c r="C436" s="3" t="s">
         <v>1657</v>
       </c>
@@ -30858,9 +30414,7 @@
       <c r="A437" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>1661</v>
-      </c>
+      <c r="B437" s="2"/>
       <c r="C437" s="3" t="s">
         <v>1662</v>
       </c>
@@ -30873,9 +30427,7 @@
       <c r="A438" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="B438" s="2" t="s">
-        <v>1664</v>
-      </c>
+      <c r="B438" s="2"/>
       <c r="C438" s="3" t="s">
         <v>1666</v>
       </c>
@@ -30888,9 +30440,7 @@
       <c r="A439" s="2" t="s">
         <v>1667</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>1668</v>
-      </c>
+      <c r="B439" s="2"/>
       <c r="C439" s="3" t="s">
         <v>1671</v>
       </c>
@@ -30903,9 +30453,7 @@
       <c r="A440" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>1673</v>
-      </c>
+      <c r="B440" s="2"/>
       <c r="C440" s="3" t="s">
         <v>1675</v>
       </c>
@@ -30918,9 +30466,7 @@
       <c r="A441" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>1677</v>
-      </c>
+      <c r="B441" s="2"/>
       <c r="C441" s="3" t="s">
         <v>1680</v>
       </c>
@@ -30933,9 +30479,7 @@
       <c r="A442" s="2" t="s">
         <v>1681</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>1682</v>
-      </c>
+      <c r="B442" s="2"/>
       <c r="C442" s="3" t="s">
         <v>1684</v>
       </c>
@@ -30948,9 +30492,7 @@
       <c r="A443" s="2" t="s">
         <v>1685</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>1686</v>
-      </c>
+      <c r="B443" s="2"/>
       <c r="C443" s="3" t="s">
         <v>1689</v>
       </c>
@@ -30963,9 +30505,7 @@
       <c r="A444" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="B444" s="2" t="s">
-        <v>1691</v>
-      </c>
+      <c r="B444" s="2"/>
       <c r="C444" s="3" t="s">
         <v>1690</v>
       </c>
@@ -30978,9 +30518,7 @@
       <c r="A445" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="B445" s="2" t="s">
-        <v>1694</v>
-      </c>
+      <c r="B445" s="2"/>
       <c r="C445" s="3" t="s">
         <v>1697</v>
       </c>
@@ -30993,9 +30531,7 @@
       <c r="A446" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>1699</v>
-      </c>
+      <c r="B446" s="2"/>
       <c r="C446" s="3" t="s">
         <v>1702</v>
       </c>
@@ -31008,9 +30544,7 @@
       <c r="A447" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>1704</v>
-      </c>
+      <c r="B447" s="2"/>
       <c r="C447" s="3" t="s">
         <v>1706</v>
       </c>
@@ -31023,9 +30557,7 @@
       <c r="A448" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="B448" s="2" t="s">
-        <v>1708</v>
-      </c>
+      <c r="B448" s="2"/>
       <c r="C448" s="3" t="s">
         <v>1707</v>
       </c>
@@ -31038,9 +30570,7 @@
       <c r="A449" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>1711</v>
-      </c>
+      <c r="B449" s="2"/>
       <c r="C449" s="3" t="s">
         <v>1714</v>
       </c>
@@ -31053,9 +30583,7 @@
       <c r="A450" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="B450" s="2" t="s">
-        <v>1716</v>
-      </c>
+      <c r="B450" s="2"/>
       <c r="C450" s="3" t="s">
         <v>1718</v>
       </c>
@@ -31068,9 +30596,7 @@
       <c r="A451" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="B451" s="2" t="s">
-        <v>1720</v>
-      </c>
+      <c r="B451" s="2"/>
       <c r="C451" s="3" t="s">
         <v>1722</v>
       </c>
@@ -31083,9 +30609,7 @@
       <c r="A452" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>1724</v>
-      </c>
+      <c r="B452" s="2"/>
       <c r="C452" s="3" t="s">
         <v>1726</v>
       </c>
@@ -31098,9 +30622,7 @@
       <c r="A453" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>1724</v>
-      </c>
+      <c r="B453" s="2"/>
       <c r="C453" s="3" t="s">
         <v>1726</v>
       </c>
@@ -31113,9 +30635,7 @@
       <c r="A454" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>1729</v>
-      </c>
+      <c r="B454" s="2"/>
       <c r="C454" s="3" t="s">
         <v>1731</v>
       </c>
@@ -31128,9 +30648,7 @@
       <c r="A455" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="B455" s="2" t="s">
-        <v>1733</v>
-      </c>
+      <c r="B455" s="2"/>
       <c r="C455" s="3" t="s">
         <v>1735</v>
       </c>
@@ -31143,9 +30661,7 @@
       <c r="A456" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>1737</v>
-      </c>
+      <c r="B456" s="2"/>
       <c r="C456" s="3" t="s">
         <v>1737</v>
       </c>
@@ -31158,9 +30674,7 @@
       <c r="A457" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="B457" s="2" t="s">
-        <v>1740</v>
-      </c>
+      <c r="B457" s="2"/>
       <c r="C457" s="3" t="s">
         <v>1739</v>
       </c>
@@ -31173,9 +30687,7 @@
       <c r="A458" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>1742</v>
-      </c>
+      <c r="B458" s="2"/>
       <c r="C458" s="3" t="s">
         <v>1745</v>
       </c>
@@ -31188,9 +30700,7 @@
       <c r="A459" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>1748</v>
-      </c>
+      <c r="B459" s="2"/>
       <c r="C459" s="3" t="s">
         <v>1750</v>
       </c>
@@ -31203,9 +30713,7 @@
       <c r="A460" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>1752</v>
-      </c>
+      <c r="B460" s="2"/>
       <c r="C460" s="3" t="s">
         <v>1754</v>
       </c>
@@ -31218,9 +30726,7 @@
       <c r="A461" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>1756</v>
-      </c>
+      <c r="B461" s="2"/>
       <c r="C461" s="3" t="s">
         <v>1758</v>
       </c>
@@ -31233,9 +30739,7 @@
       <c r="A462" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>1760</v>
-      </c>
+      <c r="B462" s="2"/>
       <c r="C462" s="3" t="s">
         <v>1762</v>
       </c>
@@ -31248,9 +30752,7 @@
       <c r="A463" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>1764</v>
-      </c>
+      <c r="B463" s="2"/>
       <c r="C463" s="3" t="s">
         <v>1766</v>
       </c>
@@ -31263,9 +30765,7 @@
       <c r="A464" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>1768</v>
-      </c>
+      <c r="B464" s="2"/>
       <c r="C464" s="3" t="s">
         <v>1771</v>
       </c>
@@ -31278,9 +30778,7 @@
       <c r="A465" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>1774</v>
-      </c>
+      <c r="B465" s="2"/>
       <c r="C465" s="3" t="s">
         <v>1776</v>
       </c>
@@ -31293,9 +30791,7 @@
       <c r="A466" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>1778</v>
-      </c>
+      <c r="B466" s="2"/>
       <c r="C466" s="3" t="s">
         <v>1781</v>
       </c>
@@ -31308,9 +30804,7 @@
       <c r="A467" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>1778</v>
-      </c>
+      <c r="B467" s="2"/>
       <c r="C467" s="3" t="s">
         <v>1781</v>
       </c>
@@ -31323,9 +30817,7 @@
       <c r="A468" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>1786</v>
-      </c>
+      <c r="B468" s="2"/>
       <c r="C468" s="3" t="s">
         <v>1789</v>
       </c>
@@ -31338,9 +30830,7 @@
       <c r="A469" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>1791</v>
-      </c>
+      <c r="B469" s="2"/>
       <c r="C469" s="3" t="s">
         <v>1794</v>
       </c>
@@ -31353,9 +30843,7 @@
       <c r="A470" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>1797</v>
-      </c>
+      <c r="B470" s="2"/>
       <c r="C470" s="3" t="s">
         <v>1799</v>
       </c>
@@ -31368,9 +30856,7 @@
       <c r="A471" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>1801</v>
-      </c>
+      <c r="B471" s="2"/>
       <c r="C471" s="3" t="s">
         <v>1804</v>
       </c>
@@ -31383,9 +30869,7 @@
       <c r="A472" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>1806</v>
-      </c>
+      <c r="B472" s="2"/>
       <c r="C472" s="3" t="s">
         <v>1809</v>
       </c>
@@ -31398,9 +30882,7 @@
       <c r="A473" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>1811</v>
-      </c>
+      <c r="B473" s="2"/>
       <c r="C473" s="3" t="s">
         <v>1814</v>
       </c>
@@ -31413,9 +30895,7 @@
       <c r="A474" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>1816</v>
-      </c>
+      <c r="B474" s="2"/>
       <c r="C474" s="3" t="s">
         <v>1819</v>
       </c>
@@ -31428,9 +30908,7 @@
       <c r="A475" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="B475" s="2"/>
       <c r="C475" s="3" t="s">
         <v>278</v>
       </c>
@@ -31443,9 +30921,7 @@
       <c r="A476" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>1823</v>
-      </c>
+      <c r="B476" s="2"/>
       <c r="C476" s="3" t="s">
         <v>1822</v>
       </c>
@@ -31458,9 +30934,7 @@
       <c r="A477" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>1826</v>
-      </c>
+      <c r="B477" s="2"/>
       <c r="C477" s="3" t="s">
         <v>1825</v>
       </c>
@@ -31473,9 +30947,7 @@
       <c r="A478" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>1828</v>
-      </c>
+      <c r="B478" s="2"/>
       <c r="C478" s="3" t="s">
         <v>1830</v>
       </c>
@@ -31488,9 +30960,7 @@
       <c r="A479" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>1832</v>
-      </c>
+      <c r="B479" s="2"/>
       <c r="C479" s="3" t="s">
         <v>1835</v>
       </c>
@@ -31503,9 +30973,7 @@
       <c r="A480" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>1837</v>
-      </c>
+      <c r="B480" s="2"/>
       <c r="C480" s="3" t="s">
         <v>1840</v>
       </c>
@@ -31518,9 +30986,7 @@
       <c r="A481" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>1841</v>
-      </c>
+      <c r="B481" s="2"/>
       <c r="C481" s="3" t="s">
         <v>1841</v>
       </c>
@@ -31533,9 +30999,7 @@
       <c r="A482" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>1844</v>
-      </c>
+      <c r="B482" s="2"/>
       <c r="C482" s="3" t="s">
         <v>1843</v>
       </c>
@@ -31548,9 +31012,7 @@
       <c r="A483" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>1846</v>
-      </c>
+      <c r="B483" s="2"/>
       <c r="C483" s="3" t="s">
         <v>1848</v>
       </c>
@@ -31563,9 +31025,7 @@
       <c r="A484" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>1850</v>
-      </c>
+      <c r="B484" s="2"/>
       <c r="C484" s="3" t="s">
         <v>1853</v>
       </c>
@@ -31578,9 +31038,7 @@
       <c r="A485" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>1855</v>
-      </c>
+      <c r="B485" s="2"/>
       <c r="C485" s="3" t="s">
         <v>1858</v>
       </c>
@@ -31593,9 +31051,7 @@
       <c r="A486" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>1851</v>
-      </c>
+      <c r="B486" s="2"/>
       <c r="C486" s="3" t="s">
         <v>1862</v>
       </c>
@@ -31608,9 +31064,7 @@
       <c r="A487" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>1389</v>
-      </c>
+      <c r="B487" s="2"/>
       <c r="C487" s="3" t="s">
         <v>1866</v>
       </c>
@@ -31623,9 +31077,7 @@
       <c r="A488" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>1389</v>
-      </c>
+      <c r="B488" s="2"/>
       <c r="C488" s="3" t="s">
         <v>1866</v>
       </c>
@@ -31638,9 +31090,7 @@
       <c r="A489" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>1869</v>
-      </c>
+      <c r="B489" s="2"/>
       <c r="C489" s="3" t="s">
         <v>1871</v>
       </c>
@@ -31653,9 +31103,7 @@
       <c r="A490" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>1873</v>
-      </c>
+      <c r="B490" s="2"/>
       <c r="C490" s="3" t="s">
         <v>1875</v>
       </c>
@@ -31668,9 +31116,7 @@
       <c r="A491" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>1877</v>
-      </c>
+      <c r="B491" s="2"/>
       <c r="C491" s="3" t="s">
         <v>1879</v>
       </c>
@@ -31683,9 +31129,7 @@
       <c r="A492" s="2" t="s">
         <v>1880</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>1881</v>
-      </c>
+      <c r="B492" s="2"/>
       <c r="C492" s="3" t="s">
         <v>1883</v>
       </c>
@@ -31698,9 +31142,7 @@
       <c r="A493" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="B493" s="2" t="s">
-        <v>1885</v>
-      </c>
+      <c r="B493" s="2"/>
       <c r="C493" s="3" t="s">
         <v>1887</v>
       </c>
@@ -31713,9 +31155,7 @@
       <c r="A494" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="B494" s="2" t="s">
-        <v>1889</v>
-      </c>
+      <c r="B494" s="2"/>
       <c r="C494" s="3" t="s">
         <v>1891</v>
       </c>
@@ -31728,9 +31168,7 @@
       <c r="A495" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>1893</v>
-      </c>
+      <c r="B495" s="2"/>
       <c r="C495" s="3" t="s">
         <v>1892</v>
       </c>
@@ -31743,9 +31181,7 @@
       <c r="A496" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="B496" s="2" t="s">
-        <v>1896</v>
-      </c>
+      <c r="B496" s="2"/>
       <c r="C496" s="3" t="s">
         <v>1898</v>
       </c>
@@ -31758,9 +31194,7 @@
       <c r="A497" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="B497" s="2" t="s">
-        <v>1900</v>
-      </c>
+      <c r="B497" s="2"/>
       <c r="C497" s="3" t="s">
         <v>1899</v>
       </c>
@@ -31773,9 +31207,7 @@
       <c r="A498" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="B498" s="2" t="s">
-        <v>1903</v>
-      </c>
+      <c r="B498" s="2"/>
       <c r="C498" s="3" t="s">
         <v>1902</v>
       </c>
@@ -31788,9 +31220,7 @@
       <c r="A499" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>1906</v>
-      </c>
+      <c r="B499" s="2"/>
       <c r="C499" s="3" t="s">
         <v>1908</v>
       </c>
@@ -31803,9 +31233,7 @@
       <c r="A500" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="B500" s="2" t="s">
-        <v>1909</v>
-      </c>
+      <c r="B500" s="2"/>
       <c r="C500" s="3" t="s">
         <v>1909</v>
       </c>
@@ -31818,9 +31246,7 @@
       <c r="A501" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="B501" s="2" t="s">
-        <v>1912</v>
-      </c>
+      <c r="B501" s="2"/>
       <c r="C501" s="3" t="s">
         <v>1914</v>
       </c>
@@ -31833,9 +31259,7 @@
       <c r="A502" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="B502" s="2" t="s">
-        <v>1916</v>
-      </c>
+      <c r="B502" s="2"/>
       <c r="C502" s="3" t="s">
         <v>1919</v>
       </c>
@@ -31848,9 +31272,7 @@
       <c r="A503" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>1916</v>
-      </c>
+      <c r="B503" s="2"/>
       <c r="C503" s="3" t="s">
         <v>1922</v>
       </c>
@@ -31863,9 +31285,7 @@
       <c r="A504" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="B504" s="2" t="s">
-        <v>1924</v>
-      </c>
+      <c r="B504" s="2"/>
       <c r="C504" s="3" t="s">
         <v>1927</v>
       </c>
@@ -31878,9 +31298,7 @@
       <c r="A505" s="2" t="s">
         <v>1928</v>
       </c>
-      <c r="B505" s="2" t="s">
-        <v>1929</v>
-      </c>
+      <c r="B505" s="2"/>
       <c r="C505" s="3" t="s">
         <v>1932</v>
       </c>
@@ -31893,9 +31311,7 @@
       <c r="A506" s="2" t="s">
         <v>1933</v>
       </c>
-      <c r="B506" s="2" t="s">
-        <v>1934</v>
-      </c>
+      <c r="B506" s="2"/>
       <c r="C506" s="3" t="s">
         <v>1937</v>
       </c>
@@ -31908,9 +31324,7 @@
       <c r="A507" s="2" t="s">
         <v>1938</v>
       </c>
-      <c r="B507" s="2" t="s">
-        <v>1939</v>
-      </c>
+      <c r="B507" s="2"/>
       <c r="C507" s="3" t="s">
         <v>1942</v>
       </c>
@@ -31923,9 +31337,7 @@
       <c r="A508" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="B508" s="2" t="s">
-        <v>1944</v>
-      </c>
+      <c r="B508" s="2"/>
       <c r="C508" s="3" t="s">
         <v>1946</v>
       </c>
@@ -31938,9 +31350,7 @@
       <c r="A509" s="2" t="s">
         <v>1947</v>
       </c>
-      <c r="B509" s="2" t="s">
-        <v>1948</v>
-      </c>
+      <c r="B509" s="2"/>
       <c r="C509" s="3" t="s">
         <v>1947</v>
       </c>
@@ -31953,9 +31363,7 @@
       <c r="A510" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="B510" s="2" t="s">
-        <v>1950</v>
-      </c>
+      <c r="B510" s="2"/>
       <c r="C510" s="3" t="s">
         <v>1952</v>
       </c>
@@ -31968,9 +31376,7 @@
       <c r="A511" s="2" t="s">
         <v>1953</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>1954</v>
-      </c>
+      <c r="B511" s="2"/>
       <c r="C511" s="3" t="s">
         <v>1957</v>
       </c>
@@ -31983,9 +31389,7 @@
       <c r="A512" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="B512" s="2" t="s">
-        <v>1959</v>
-      </c>
+      <c r="B512" s="2"/>
       <c r="C512" s="3" t="s">
         <v>1958</v>
       </c>
@@ -31998,9 +31402,7 @@
       <c r="A513" s="2" t="s">
         <v>1960</v>
       </c>
-      <c r="B513" s="2" t="s">
-        <v>1961</v>
-      </c>
+      <c r="B513" s="2"/>
       <c r="C513" s="3" t="s">
         <v>1963</v>
       </c>
@@ -32013,9 +31415,7 @@
       <c r="A514" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="B514" s="2" t="s">
-        <v>1961</v>
-      </c>
+      <c r="B514" s="2"/>
       <c r="C514" s="3" t="s">
         <v>1963</v>
       </c>
@@ -32028,9 +31428,7 @@
       <c r="A515" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="B515" s="2" t="s">
-        <v>1966</v>
-      </c>
+      <c r="B515" s="2"/>
       <c r="C515" s="3" t="s">
         <v>1968</v>
       </c>
@@ -32043,9 +31441,7 @@
       <c r="A516" s="2" t="s">
         <v>1969</v>
       </c>
-      <c r="B516" s="2" t="s">
-        <v>1970</v>
-      </c>
+      <c r="B516" s="2"/>
       <c r="C516" s="3" t="s">
         <v>1973</v>
       </c>
@@ -32058,9 +31454,7 @@
       <c r="A517" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>1975</v>
-      </c>
+      <c r="B517" s="2"/>
       <c r="C517" s="3" t="s">
         <v>1976</v>
       </c>
@@ -32073,9 +31467,7 @@
       <c r="A518" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>1978</v>
-      </c>
+      <c r="B518" s="2"/>
       <c r="C518" s="3" t="s">
         <v>1980</v>
       </c>
@@ -32088,9 +31480,7 @@
       <c r="A519" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>1981</v>
-      </c>
+      <c r="B519" s="2"/>
       <c r="C519" s="3" t="s">
         <v>1981</v>
       </c>
@@ -32103,9 +31493,7 @@
       <c r="A520" s="2" t="s">
         <v>1983</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>1984</v>
-      </c>
+      <c r="B520" s="2"/>
       <c r="C520" s="3" t="s">
         <v>1986</v>
       </c>
@@ -32118,9 +31506,7 @@
       <c r="A521" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>1988</v>
-      </c>
+      <c r="B521" s="2"/>
       <c r="C521" s="3" t="s">
         <v>1989</v>
       </c>
@@ -32133,9 +31519,7 @@
       <c r="A522" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>1991</v>
-      </c>
+      <c r="B522" s="2"/>
       <c r="C522" s="3" t="s">
         <v>1992</v>
       </c>
@@ -32148,9 +31532,7 @@
       <c r="A523" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>1994</v>
-      </c>
+      <c r="B523" s="2"/>
       <c r="C523" s="3" t="s">
         <v>1993</v>
       </c>
@@ -32163,9 +31545,7 @@
       <c r="A524" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>1996</v>
-      </c>
+      <c r="B524" s="2"/>
       <c r="C524" s="3" t="s">
         <v>1998</v>
       </c>
@@ -32178,9 +31558,7 @@
       <c r="A525" s="2" t="s">
         <v>1999</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>2000</v>
-      </c>
+      <c r="B525" s="2"/>
       <c r="C525" s="3" t="s">
         <v>2001</v>
       </c>
@@ -32193,9 +31571,7 @@
       <c r="A526" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>2004</v>
-      </c>
+      <c r="B526" s="2"/>
       <c r="C526" s="3" t="s">
         <v>2005</v>
       </c>
@@ -32208,9 +31584,7 @@
       <c r="A527" s="2" t="s">
         <v>2006</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>2007</v>
-      </c>
+      <c r="B527" s="2"/>
       <c r="C527" s="3" t="s">
         <v>2008</v>
       </c>
@@ -32223,9 +31597,7 @@
       <c r="A528" s="2" t="s">
         <v>2009</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>2010</v>
-      </c>
+      <c r="B528" s="2"/>
       <c r="C528" s="3" t="s">
         <v>2013</v>
       </c>
@@ -32238,9 +31610,7 @@
       <c r="A529" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>2014</v>
-      </c>
+      <c r="B529" s="2"/>
       <c r="C529" s="3" t="s">
         <v>2014</v>
       </c>
@@ -32253,9 +31623,7 @@
       <c r="A530" s="2" t="s">
         <v>2015</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>2016</v>
-      </c>
+      <c r="B530" s="2"/>
       <c r="C530" s="3" t="s">
         <v>2017</v>
       </c>
@@ -32268,9 +31636,7 @@
       <c r="A531" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>2019</v>
-      </c>
+      <c r="B531" s="2"/>
       <c r="C531" s="3" t="s">
         <v>2018</v>
       </c>
@@ -32283,9 +31649,7 @@
       <c r="A532" s="2" t="s">
         <v>2020</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>2021</v>
-      </c>
+      <c r="B532" s="2"/>
       <c r="C532" s="3" t="s">
         <v>2024</v>
       </c>
@@ -32298,9 +31662,7 @@
       <c r="A533" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>2026</v>
-      </c>
+      <c r="B533" s="2"/>
       <c r="C533" s="3" t="s">
         <v>2029</v>
       </c>
@@ -32313,9 +31675,7 @@
       <c r="A534" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>2031</v>
-      </c>
+      <c r="B534" s="2"/>
       <c r="C534" s="3" t="s">
         <v>2034</v>
       </c>
@@ -32328,9 +31688,7 @@
       <c r="A535" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>2036</v>
-      </c>
+      <c r="B535" s="2"/>
       <c r="C535" s="3" t="s">
         <v>2037</v>
       </c>
@@ -32343,9 +31701,7 @@
       <c r="A536" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>2039</v>
-      </c>
+      <c r="B536" s="2"/>
       <c r="C536" s="3" t="s">
         <v>2041</v>
       </c>
@@ -32358,9 +31714,7 @@
       <c r="A537" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>2043</v>
-      </c>
+      <c r="B537" s="2"/>
       <c r="C537" s="3" t="s">
         <v>2045</v>
       </c>
@@ -32373,9 +31727,7 @@
       <c r="A538" s="2" t="s">
         <v>2046</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>2047</v>
-      </c>
+      <c r="B538" s="2"/>
       <c r="C538" s="3" t="s">
         <v>2048</v>
       </c>
@@ -32388,9 +31740,7 @@
       <c r="A539" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>2050</v>
-      </c>
+      <c r="B539" s="2"/>
       <c r="C539" s="3" t="s">
         <v>2049</v>
       </c>
@@ -32403,9 +31753,7 @@
       <c r="A540" s="2" t="s">
         <v>2051</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>2052</v>
-      </c>
+      <c r="B540" s="2"/>
       <c r="C540" s="3" t="s">
         <v>2054</v>
       </c>
@@ -32418,9 +31766,7 @@
       <c r="A541" s="2" t="s">
         <v>2055</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>2056</v>
-      </c>
+      <c r="B541" s="2"/>
       <c r="C541" s="3" t="s">
         <v>2057</v>
       </c>
@@ -32433,9 +31779,7 @@
       <c r="A542" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>2059</v>
-      </c>
+      <c r="B542" s="2"/>
       <c r="C542" s="3" t="s">
         <v>2060</v>
       </c>
@@ -32448,9 +31792,7 @@
       <c r="A543" s="2" t="s">
         <v>2061</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>2062</v>
-      </c>
+      <c r="B543" s="2"/>
       <c r="C543" s="3" t="s">
         <v>2063</v>
       </c>
@@ -32463,9 +31805,7 @@
       <c r="A544" s="2" t="s">
         <v>2064</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>2065</v>
-      </c>
+      <c r="B544" s="2"/>
       <c r="C544" s="3" t="s">
         <v>2066</v>
       </c>
@@ -32478,9 +31818,7 @@
       <c r="A545" s="2" t="s">
         <v>2067</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>2068</v>
-      </c>
+      <c r="B545" s="2"/>
       <c r="C545" s="3" t="s">
         <v>2069</v>
       </c>
@@ -32493,9 +31831,7 @@
       <c r="A546" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="B546" s="2" t="s">
-        <v>2065</v>
-      </c>
+      <c r="B546" s="2"/>
       <c r="C546" s="3" t="s">
         <v>2066</v>
       </c>
@@ -32508,9 +31844,7 @@
       <c r="A547" s="2" t="s">
         <v>2071</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>2072</v>
-      </c>
+      <c r="B547" s="2"/>
       <c r="C547" s="3" t="s">
         <v>2074</v>
       </c>
@@ -32523,9 +31857,7 @@
       <c r="A548" s="2" t="s">
         <v>2075</v>
       </c>
-      <c r="B548" s="2" t="s">
-        <v>2076</v>
-      </c>
+      <c r="B548" s="2"/>
       <c r="C548" s="3" t="s">
         <v>2079</v>
       </c>
@@ -32538,9 +31870,7 @@
       <c r="A549" s="2" t="s">
         <v>2080</v>
       </c>
-      <c r="B549" s="2" t="s">
-        <v>2081</v>
-      </c>
+      <c r="B549" s="2"/>
       <c r="C549" s="3" t="s">
         <v>2083</v>
       </c>
@@ -32553,9 +31883,7 @@
       <c r="A550" s="2" t="s">
         <v>2084</v>
       </c>
-      <c r="B550" s="2" t="s">
-        <v>2085</v>
-      </c>
+      <c r="B550" s="2"/>
       <c r="C550" s="3" t="s">
         <v>2087</v>
       </c>
@@ -32568,9 +31896,7 @@
       <c r="A551" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="B551" s="2" t="s">
-        <v>2089</v>
-      </c>
+      <c r="B551" s="2"/>
       <c r="C551" s="3" t="s">
         <v>2088</v>
       </c>
@@ -32583,9 +31909,7 @@
       <c r="A552" s="2" t="s">
         <v>2091</v>
       </c>
-      <c r="B552" s="2" t="s">
-        <v>2092</v>
-      </c>
+      <c r="B552" s="2"/>
       <c r="C552" s="3" t="s">
         <v>2093</v>
       </c>
@@ -32598,9 +31922,7 @@
       <c r="A553" s="2" t="s">
         <v>2094</v>
       </c>
-      <c r="B553" s="2" t="s">
-        <v>2095</v>
-      </c>
+      <c r="B553" s="2"/>
       <c r="C553" s="3" t="s">
         <v>2096</v>
       </c>
@@ -32613,9 +31935,7 @@
       <c r="A554" s="2" t="s">
         <v>2097</v>
       </c>
-      <c r="B554" s="2" t="s">
-        <v>2098</v>
-      </c>
+      <c r="B554" s="2"/>
       <c r="C554" s="3" t="s">
         <v>2099</v>
       </c>
@@ -32628,9 +31948,7 @@
       <c r="A555" s="2" t="s">
         <v>2100</v>
       </c>
-      <c r="B555" s="2" t="s">
-        <v>2102</v>
-      </c>
+      <c r="B555" s="2"/>
       <c r="C555" s="3" t="s">
         <v>2099</v>
       </c>
@@ -32643,9 +31961,7 @@
       <c r="A556" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="B556" s="2" t="s">
-        <v>2104</v>
-      </c>
+      <c r="B556" s="2"/>
       <c r="C556" s="3" t="s">
         <v>2105</v>
       </c>
@@ -32658,9 +31974,7 @@
       <c r="A557" s="2" t="s">
         <v>2106</v>
       </c>
-      <c r="B557" s="2" t="s">
-        <v>2107</v>
-      </c>
+      <c r="B557" s="2"/>
       <c r="C557" s="3" t="s">
         <v>2108</v>
       </c>
@@ -32673,9 +31987,7 @@
       <c r="A558" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="B558" s="2" t="s">
-        <v>2110</v>
-      </c>
+      <c r="B558" s="2"/>
       <c r="C558" s="3" t="s">
         <v>2109</v>
       </c>
@@ -32688,9 +32000,7 @@
       <c r="A559" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="B559" s="2" t="s">
-        <v>2112</v>
-      </c>
+      <c r="B559" s="2"/>
       <c r="C559" s="3" t="s">
         <v>2111</v>
       </c>
@@ -32703,9 +32013,7 @@
       <c r="A560" s="2" t="s">
         <v>2113</v>
       </c>
-      <c r="B560" s="2" t="s">
-        <v>2114</v>
-      </c>
+      <c r="B560" s="2"/>
       <c r="C560" s="3" t="s">
         <v>2115</v>
       </c>
@@ -32718,9 +32026,7 @@
       <c r="A561" s="2" t="s">
         <v>2116</v>
       </c>
-      <c r="B561" s="2" t="s">
-        <v>2117</v>
-      </c>
+      <c r="B561" s="2"/>
       <c r="C561" s="3" t="s">
         <v>2118</v>
       </c>
@@ -32733,9 +32039,7 @@
       <c r="A562" s="2" t="s">
         <v>2119</v>
       </c>
-      <c r="B562" s="2" t="s">
-        <v>2120</v>
-      </c>
+      <c r="B562" s="2"/>
       <c r="C562" s="3" t="s">
         <v>2121</v>
       </c>
@@ -32748,9 +32052,7 @@
       <c r="A563" s="2" t="s">
         <v>2122</v>
       </c>
-      <c r="B563" s="2" t="s">
-        <v>2123</v>
-      </c>
+      <c r="B563" s="2"/>
       <c r="C563" s="3" t="s">
         <v>2124</v>
       </c>
@@ -32763,9 +32065,7 @@
       <c r="A564" s="2" t="s">
         <v>2125</v>
       </c>
-      <c r="B564" s="2" t="s">
-        <v>2126</v>
-      </c>
+      <c r="B564" s="2"/>
       <c r="C564" s="3" t="s">
         <v>2129</v>
       </c>
@@ -32778,9 +32078,7 @@
       <c r="A565" s="2" t="s">
         <v>2130</v>
       </c>
-      <c r="B565" s="2" t="s">
-        <v>2131</v>
-      </c>
+      <c r="B565" s="2"/>
       <c r="C565" s="3" t="s">
         <v>2130</v>
       </c>
@@ -32793,9 +32091,7 @@
       <c r="A566" s="2" t="s">
         <v>2132</v>
       </c>
-      <c r="B566" s="2" t="s">
-        <v>2133</v>
-      </c>
+      <c r="B566" s="2"/>
       <c r="C566" s="3" t="s">
         <v>2135</v>
       </c>
@@ -32808,9 +32104,7 @@
       <c r="A567" s="2" t="s">
         <v>2136</v>
       </c>
-      <c r="B567" s="2" t="s">
-        <v>2137</v>
-      </c>
+      <c r="B567" s="2"/>
       <c r="C567" s="3" t="s">
         <v>2136</v>
       </c>
@@ -32823,9 +32117,7 @@
       <c r="A568" s="2" t="s">
         <v>2139</v>
       </c>
-      <c r="B568" s="2" t="s">
-        <v>2140</v>
-      </c>
+      <c r="B568" s="2"/>
       <c r="C568" s="3" t="s">
         <v>2141</v>
       </c>
@@ -32838,9 +32130,7 @@
       <c r="A569" s="2" t="s">
         <v>2142</v>
       </c>
-      <c r="B569" s="2" t="s">
-        <v>2143</v>
-      </c>
+      <c r="B569" s="2"/>
       <c r="C569" s="3" t="s">
         <v>2144</v>
       </c>
@@ -32853,9 +32143,7 @@
       <c r="A570" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="B570" s="2" t="s">
-        <v>2147</v>
-      </c>
+      <c r="B570" s="2"/>
       <c r="C570" s="3" t="s">
         <v>1962</v>
       </c>
@@ -32868,9 +32156,7 @@
       <c r="A571" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="B571" s="2" t="s">
-        <v>1961</v>
-      </c>
+      <c r="B571" s="2"/>
       <c r="C571" s="3" t="s">
         <v>1962</v>
       </c>
@@ -32883,9 +32169,7 @@
       <c r="A572" s="2" t="s">
         <v>2150</v>
       </c>
-      <c r="B572" s="2" t="s">
-        <v>2151</v>
-      </c>
+      <c r="B572" s="2"/>
       <c r="C572" s="3" t="s">
         <v>2153</v>
       </c>
@@ -32898,9 +32182,7 @@
       <c r="A573" s="2" t="s">
         <v>2154</v>
       </c>
-      <c r="B573" s="2" t="s">
-        <v>2147</v>
-      </c>
+      <c r="B573" s="2"/>
       <c r="C573" s="3" t="s">
         <v>2156</v>
       </c>
@@ -32913,9 +32195,7 @@
       <c r="A574" s="2" t="s">
         <v>2157</v>
       </c>
-      <c r="B574" s="2" t="s">
-        <v>2158</v>
-      </c>
+      <c r="B574" s="2"/>
       <c r="C574" s="3" t="s">
         <v>2160</v>
       </c>
@@ -32928,9 +32208,7 @@
       <c r="A575" s="2" t="s">
         <v>2161</v>
       </c>
-      <c r="B575" s="2" t="s">
-        <v>2162</v>
-      </c>
+      <c r="B575" s="2"/>
       <c r="C575" s="3" t="s">
         <v>2163</v>
       </c>
@@ -32943,9 +32221,7 @@
       <c r="A576" s="2" t="s">
         <v>2164</v>
       </c>
-      <c r="B576" s="2" t="s">
-        <v>2165</v>
-      </c>
+      <c r="B576" s="2"/>
       <c r="C576" s="3" t="s">
         <v>2166</v>
       </c>
@@ -32958,9 +32234,7 @@
       <c r="A577" s="2" t="s">
         <v>2167</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>2168</v>
-      </c>
+      <c r="B577" s="2"/>
       <c r="C577" s="3" t="s">
         <v>2169</v>
       </c>
@@ -32973,9 +32247,7 @@
       <c r="A578" s="2" t="s">
         <v>2170</v>
       </c>
-      <c r="B578" s="2" t="s">
-        <v>2171</v>
-      </c>
+      <c r="B578" s="2"/>
       <c r="C578" s="3" t="s">
         <v>2170</v>
       </c>
@@ -32988,9 +32260,7 @@
       <c r="A579" s="2" t="s">
         <v>2172</v>
       </c>
-      <c r="B579" s="2" t="s">
-        <v>2173</v>
-      </c>
+      <c r="B579" s="2"/>
       <c r="C579" s="3" t="s">
         <v>2175</v>
       </c>
@@ -33003,9 +32273,7 @@
       <c r="A580" s="2" t="s">
         <v>2176</v>
       </c>
-      <c r="B580" s="2" t="s">
-        <v>2177</v>
-      </c>
+      <c r="B580" s="2"/>
       <c r="C580" s="3" t="s">
         <v>2179</v>
       </c>
@@ -33018,9 +32286,7 @@
       <c r="A581" s="2" t="s">
         <v>2180</v>
       </c>
-      <c r="B581" s="2" t="s">
-        <v>2181</v>
-      </c>
+      <c r="B581" s="2"/>
       <c r="C581" s="3" t="s">
         <v>2180</v>
       </c>
@@ -33033,9 +32299,7 @@
       <c r="A582" s="2" t="s">
         <v>2182</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>2183</v>
-      </c>
+      <c r="B582" s="2"/>
       <c r="C582" s="3" t="s">
         <v>2184</v>
       </c>
@@ -33048,9 +32312,7 @@
       <c r="A583" s="2" t="s">
         <v>2185</v>
       </c>
-      <c r="B583" s="2" t="s">
-        <v>2186</v>
-      </c>
+      <c r="B583" s="2"/>
       <c r="C583" s="3" t="s">
         <v>2188</v>
       </c>
@@ -33063,9 +32325,7 @@
       <c r="A584" s="2" t="s">
         <v>2189</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>2187</v>
-      </c>
+      <c r="B584" s="2"/>
       <c r="C584" s="3" t="s">
         <v>2190</v>
       </c>
@@ -33078,9 +32338,7 @@
       <c r="A585" s="2" t="s">
         <v>2191</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>2192</v>
-      </c>
+      <c r="B585" s="2"/>
       <c r="C585" s="3" t="s">
         <v>2193</v>
       </c>
@@ -33093,9 +32351,7 @@
       <c r="A586" s="2" t="s">
         <v>2194</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>2187</v>
-      </c>
+      <c r="B586" s="2"/>
       <c r="C586" s="3" t="s">
         <v>2196</v>
       </c>
@@ -33108,9 +32364,7 @@
       <c r="A587" s="2" t="s">
         <v>2197</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>2198</v>
-      </c>
+      <c r="B587" s="2"/>
       <c r="C587" s="3" t="s">
         <v>2199</v>
       </c>
@@ -33123,9 +32377,7 @@
       <c r="A588" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>2201</v>
-      </c>
+      <c r="B588" s="2"/>
       <c r="C588" s="3" t="s">
         <v>2202</v>
       </c>
@@ -33138,9 +32390,7 @@
       <c r="A589" s="2" t="s">
         <v>2203</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>2204</v>
-      </c>
+      <c r="B589" s="2"/>
       <c r="C589" s="3" t="s">
         <v>2207</v>
       </c>
@@ -33153,9 +32403,7 @@
       <c r="A590" s="2" t="s">
         <v>2208</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>2209</v>
-      </c>
+      <c r="B590" s="2"/>
       <c r="C590" s="3" t="s">
         <v>2211</v>
       </c>
@@ -33168,9 +32416,7 @@
       <c r="A591" s="2" t="s">
         <v>2212</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>2213</v>
-      </c>
+      <c r="B591" s="2"/>
       <c r="C591" s="3" t="s">
         <v>2214</v>
       </c>
@@ -33183,9 +32429,7 @@
       <c r="A592" s="2" t="s">
         <v>2215</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>2216</v>
-      </c>
+      <c r="B592" s="2"/>
       <c r="C592" s="3" t="s">
         <v>2217</v>
       </c>
@@ -33198,9 +32442,7 @@
       <c r="A593" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>2219</v>
-      </c>
+      <c r="B593" s="2"/>
       <c r="C593" s="3" t="s">
         <v>2220</v>
       </c>
@@ -33213,9 +32455,7 @@
       <c r="A594" s="2" t="s">
         <v>2221</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>2222</v>
-      </c>
+      <c r="B594" s="2"/>
       <c r="C594" s="3" t="s">
         <v>2224</v>
       </c>
@@ -33228,9 +32468,7 @@
       <c r="A595" s="2" t="s">
         <v>2221</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>2223</v>
-      </c>
+      <c r="B595" s="2"/>
       <c r="C595" s="3" t="s">
         <v>2224</v>
       </c>
@@ -33243,9 +32481,7 @@
       <c r="A596" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>2226</v>
-      </c>
+      <c r="B596" s="2"/>
       <c r="C596" s="3" t="s">
         <v>2229</v>
       </c>
@@ -33258,9 +32494,7 @@
       <c r="A597" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>2231</v>
-      </c>
+      <c r="B597" s="2"/>
       <c r="C597" s="3" t="s">
         <v>2234</v>
       </c>
@@ -33273,9 +32507,7 @@
       <c r="A598" s="2" t="s">
         <v>2235</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>2236</v>
-      </c>
+      <c r="B598" s="2"/>
       <c r="C598" s="3" t="s">
         <v>2235</v>
       </c>
@@ -33288,9 +32520,7 @@
       <c r="A599" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>2238</v>
-      </c>
+      <c r="B599" s="2"/>
       <c r="C599" s="3" t="s">
         <v>2241</v>
       </c>
@@ -33303,9 +32533,7 @@
       <c r="A600" s="2" t="s">
         <v>2242</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>2243</v>
-      </c>
+      <c r="B600" s="2"/>
       <c r="C600" s="3" t="s">
         <v>2242</v>
       </c>
@@ -33318,9 +32546,7 @@
       <c r="A601" s="2" t="s">
         <v>2244</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>2245</v>
-      </c>
+      <c r="B601" s="2"/>
       <c r="C601" s="3" t="s">
         <v>2246</v>
       </c>
@@ -33333,9 +32559,7 @@
       <c r="A602" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>2248</v>
-      </c>
+      <c r="B602" s="2"/>
       <c r="C602" s="3" t="s">
         <v>2249</v>
       </c>
@@ -33348,9 +32572,7 @@
       <c r="A603" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="B603" s="2" t="s">
-        <v>2251</v>
-      </c>
+      <c r="B603" s="2"/>
       <c r="C603" s="3" t="s">
         <v>2252</v>
       </c>
@@ -33363,9 +32585,7 @@
       <c r="A604" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="B604" s="2" t="s">
-        <v>2254</v>
-      </c>
+      <c r="B604" s="2"/>
       <c r="C604" s="3" t="s">
         <v>2255</v>
       </c>
@@ -33378,9 +32598,7 @@
       <c r="A605" s="2" t="s">
         <v>2256</v>
       </c>
-      <c r="B605" s="2" t="s">
-        <v>2257</v>
-      </c>
+      <c r="B605" s="2"/>
       <c r="C605" s="3" t="s">
         <v>2258</v>
       </c>
@@ -33393,9 +32611,7 @@
       <c r="A606" s="2" t="s">
         <v>2259</v>
       </c>
-      <c r="B606" s="2" t="s">
-        <v>2260</v>
-      </c>
+      <c r="B606" s="2"/>
       <c r="C606" s="3" t="s">
         <v>2259</v>
       </c>
@@ -33408,9 +32624,7 @@
       <c r="A607" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="B607" s="2" t="s">
-        <v>2264</v>
-      </c>
+      <c r="B607" s="2"/>
       <c r="C607" s="3" t="s">
         <v>2263</v>
       </c>
@@ -33423,9 +32637,7 @@
       <c r="A608" s="2" t="s">
         <v>2265</v>
       </c>
-      <c r="B608" s="2" t="s">
-        <v>2266</v>
-      </c>
+      <c r="B608" s="2"/>
       <c r="C608" s="3" t="s">
         <v>2268</v>
       </c>
@@ -33438,9 +32650,7 @@
       <c r="A609" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="B609" s="2" t="s">
-        <v>2270</v>
-      </c>
+      <c r="B609" s="2"/>
       <c r="C609" s="3" t="s">
         <v>2271</v>
       </c>
@@ -33453,9 +32663,7 @@
       <c r="A610" s="2" t="s">
         <v>2272</v>
       </c>
-      <c r="B610" s="2" t="s">
-        <v>2273</v>
-      </c>
+      <c r="B610" s="2"/>
       <c r="C610" s="3" t="s">
         <v>2276</v>
       </c>
@@ -33468,9 +32676,7 @@
       <c r="A611" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="B611" s="2" t="s">
-        <v>2278</v>
-      </c>
+      <c r="B611" s="2"/>
       <c r="C611" s="3" t="s">
         <v>2279</v>
       </c>
@@ -33483,9 +32689,7 @@
       <c r="A612" s="2" t="s">
         <v>2280</v>
       </c>
-      <c r="B612" s="2" t="s">
-        <v>2281</v>
-      </c>
+      <c r="B612" s="2"/>
       <c r="C612" s="3" t="s">
         <v>2284</v>
       </c>
@@ -33498,9 +32702,7 @@
       <c r="A613" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="B613" s="2" t="s">
-        <v>2286</v>
-      </c>
+      <c r="B613" s="2"/>
       <c r="C613" s="3" t="s">
         <v>2289</v>
       </c>
@@ -33513,9 +32715,7 @@
       <c r="A614" s="2" t="s">
         <v>2290</v>
       </c>
-      <c r="B614" s="2" t="s">
-        <v>2291</v>
-      </c>
+      <c r="B614" s="2"/>
       <c r="C614" s="3" t="s">
         <v>2284</v>
       </c>
@@ -33528,9 +32728,7 @@
       <c r="A615" s="2" t="s">
         <v>2292</v>
       </c>
-      <c r="B615" s="2" t="s">
-        <v>2293</v>
-      </c>
+      <c r="B615" s="2"/>
       <c r="C615" s="3" t="s">
         <v>2294</v>
       </c>
@@ -33543,9 +32741,7 @@
       <c r="A616" s="2" t="s">
         <v>2295</v>
       </c>
-      <c r="B616" s="2" t="s">
-        <v>2293</v>
-      </c>
+      <c r="B616" s="2"/>
       <c r="C616" s="3" t="s">
         <v>2294</v>
       </c>
@@ -33558,9 +32754,7 @@
       <c r="A617" s="2" t="s">
         <v>2296</v>
       </c>
-      <c r="B617" s="2" t="s">
-        <v>2297</v>
-      </c>
+      <c r="B617" s="2"/>
       <c r="C617" s="3" t="s">
         <v>2299</v>
       </c>
@@ -33573,9 +32767,7 @@
       <c r="A618" s="2" t="s">
         <v>2300</v>
       </c>
-      <c r="B618" s="2" t="s">
-        <v>2301</v>
-      </c>
+      <c r="B618" s="2"/>
       <c r="C618" s="3" t="s">
         <v>2304</v>
       </c>
@@ -33588,9 +32780,7 @@
       <c r="A619" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="B619" s="2" t="s">
-        <v>2305</v>
-      </c>
+      <c r="B619" s="2"/>
       <c r="C619" s="3" t="s">
         <v>2305</v>
       </c>
@@ -33603,9 +32793,7 @@
       <c r="A620" s="2" t="s">
         <v>2308</v>
       </c>
-      <c r="B620" s="2" t="s">
-        <v>2309</v>
-      </c>
+      <c r="B620" s="2"/>
       <c r="C620" s="3" t="s">
         <v>2311</v>
       </c>
@@ -33618,9 +32806,7 @@
       <c r="A621" s="2" t="s">
         <v>2312</v>
       </c>
-      <c r="B621" s="2" t="s">
-        <v>2313</v>
-      </c>
+      <c r="B621" s="2"/>
       <c r="C621" s="3" t="s">
         <v>2314</v>
       </c>
@@ -33633,9 +32819,7 @@
       <c r="A622" s="2" t="s">
         <v>2315</v>
       </c>
-      <c r="B622" s="2" t="s">
-        <v>2315</v>
-      </c>
+      <c r="B622" s="2"/>
       <c r="C622" s="3" t="s">
         <v>2315</v>
       </c>
@@ -33648,9 +32832,7 @@
       <c r="A623" s="2" t="s">
         <v>2316</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>2317</v>
-      </c>
+      <c r="B623" s="2"/>
       <c r="C623" s="3" t="s">
         <v>2319</v>
       </c>
@@ -33668,7 +32850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A02A72-C7A3-9242-9D4D-22C76DFDDDAE}">
   <dimension ref="A1:E623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
